--- a/assets/Arcs.xlsx
+++ b/assets/Arcs.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/Documents/GitHub/FirePanic/IMAGES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/Documents/GitHub/FirePanic/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3DE976-C10E-774C-88BE-294E5ED044E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5A4A39-BF52-EA44-8016-1068C030646A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="3760" windowWidth="34060" windowHeight="22060" xr2:uid="{071243AF-648E-C549-A798-77CE65D73BDA}"/>
+    <workbookView xWindow="8760" yWindow="2120" windowWidth="41080" windowHeight="23320" xr2:uid="{071243AF-648E-C549-A798-77CE65D73BDA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1 (4)" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,16 +26,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="3">
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -44,8 +49,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,6 +83,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -77,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -88,6 +113,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,11 +428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7973D-F3C2-BE45-8008-13FED70B0209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9913BE02-56DD-3443-8224-496089D09AC4}">
   <dimension ref="A1:EW73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="S71" sqref="S71:CY71"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="S69" sqref="S69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,7 +441,7 @@
     <col min="114" max="153" width="3.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -604,7 +631,7 @@
       <c r="BK1">
         <v>62</v>
       </c>
-      <c r="BL1">
+      <c r="BL1" s="7">
         <v>63</v>
       </c>
       <c r="BM1">
@@ -643,7 +670,7 @@
       <c r="BX1">
         <v>75</v>
       </c>
-      <c r="BY1">
+      <c r="BY1" s="7">
         <v>76</v>
       </c>
       <c r="BZ1">
@@ -756,7 +783,7 @@
       </c>
       <c r="DJ1" s="3"/>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -799,9 +826,33 @@
       <c r="AQ2" t="s">
         <v>0</v>
       </c>
+      <c r="BC2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>2</v>
+      </c>
       <c r="DJ2" s="3"/>
-    </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -829,9 +880,19 @@
       <c r="AR3" t="s">
         <v>0</v>
       </c>
+      <c r="BA3" t="s">
+        <v>2</v>
+      </c>
       <c r="DJ3" s="3"/>
-    </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+    </row>
+    <row r="4" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -856,9 +917,19 @@
       <c r="AS4" t="s">
         <v>0</v>
       </c>
+      <c r="AY4" t="s">
+        <v>2</v>
+      </c>
       <c r="DJ4" s="3"/>
-    </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK4"/>
+      <c r="DL4"/>
+      <c r="DM4"/>
+      <c r="DN4"/>
+      <c r="DO4"/>
+      <c r="DP4"/>
+      <c r="DQ4"/>
+    </row>
+    <row r="5" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -881,8 +952,15 @@
         <v>0</v>
       </c>
       <c r="DJ5" s="3"/>
-    </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK5"/>
+      <c r="DL5"/>
+      <c r="DM5"/>
+      <c r="DN5"/>
+      <c r="DO5"/>
+      <c r="DP5"/>
+      <c r="DQ5"/>
+    </row>
+    <row r="6" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -907,9 +985,19 @@
       <c r="AT6" t="s">
         <v>0</v>
       </c>
+      <c r="AW6" t="s">
+        <v>2</v>
+      </c>
       <c r="DJ6" s="3"/>
-    </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK6"/>
+      <c r="DL6"/>
+      <c r="DM6"/>
+      <c r="DN6"/>
+      <c r="DO6"/>
+      <c r="DP6"/>
+      <c r="DQ6"/>
+    </row>
+    <row r="7" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -929,8 +1017,15 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="DJ7" s="3"/>
-    </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+    </row>
+    <row r="8" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -962,8 +1057,15 @@
         <v>0</v>
       </c>
       <c r="DJ8" s="3"/>
-    </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK8"/>
+      <c r="DL8"/>
+      <c r="DM8"/>
+      <c r="DN8"/>
+      <c r="DO8"/>
+      <c r="DP8"/>
+      <c r="DQ8"/>
+    </row>
+    <row r="9" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -986,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="AU9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ9" t="s">
         <v>0</v>
@@ -995,8 +1097,15 @@
         <v>0</v>
       </c>
       <c r="DJ9" s="3"/>
-    </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK9"/>
+      <c r="DL9"/>
+      <c r="DM9"/>
+      <c r="DN9"/>
+      <c r="DO9"/>
+      <c r="DP9"/>
+      <c r="DQ9"/>
+    </row>
+    <row r="10" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1022,8 +1131,15 @@
         <v>0</v>
       </c>
       <c r="DJ10" s="3"/>
-    </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK10"/>
+      <c r="DL10"/>
+      <c r="DM10"/>
+      <c r="DN10"/>
+      <c r="DO10"/>
+      <c r="DP10"/>
+      <c r="DQ10"/>
+    </row>
+    <row r="11" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1043,8 +1159,15 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="DJ11" s="3"/>
-    </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK11"/>
+      <c r="DL11"/>
+      <c r="DM11"/>
+      <c r="DN11"/>
+      <c r="DO11"/>
+      <c r="DP11"/>
+      <c r="DQ11"/>
+    </row>
+    <row r="12" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1073,8 +1196,17 @@
         <v>0</v>
       </c>
       <c r="DJ12" s="3"/>
-    </row>
-    <row r="13" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK12"/>
+      <c r="DL12"/>
+      <c r="DM12"/>
+      <c r="DN12"/>
+      <c r="DO12"/>
+      <c r="DP12"/>
+      <c r="DQ12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1096,12 +1228,18 @@
       <c r="AI13" t="s">
         <v>0</v>
       </c>
+      <c r="AM13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>2</v>
+      </c>
       <c r="AV13" t="s">
         <v>0</v>
       </c>
       <c r="DJ13" s="3"/>
     </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1122,7 +1260,7 @@
       <c r="R14" s="2"/>
       <c r="DJ14" s="3"/>
     </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1149,7 +1287,7 @@
       </c>
       <c r="DJ15" s="3"/>
     </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1168,7 +1306,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="DJ16"/>
+      <c r="DJ16" s="3"/>
     </row>
     <row r="17" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -1216,6 +1354,12 @@
       <c r="AH18" t="s">
         <v>0</v>
       </c>
+      <c r="AL18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>2</v>
+      </c>
       <c r="AW18" t="s">
         <v>0</v>
       </c>
@@ -1351,6 +1495,9 @@
       <c r="AG23" t="s">
         <v>0</v>
       </c>
+      <c r="AO23" t="s">
+        <v>2</v>
+      </c>
       <c r="AX23" t="s">
         <v>0</v>
       </c>
@@ -1494,6 +1641,9 @@
       <c r="R28" s="2"/>
       <c r="AF28" t="s">
         <v>0</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>2</v>
       </c>
       <c r="AY28" t="s">
         <v>0</v>
@@ -1645,7 +1795,9 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
+      <c r="AK33" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="AL33" s="5"/>
       <c r="AM33" s="5"/>
       <c r="AN33" s="5"/>
@@ -1783,6 +1935,9 @@
       <c r="R38" s="2"/>
       <c r="AD38" t="s">
         <v>0</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>2</v>
       </c>
       <c r="BA38" t="s">
         <v>0</v>
@@ -1912,7 +2067,9 @@
       <c r="DJ39" s="3"/>
     </row>
     <row r="40" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2014,6 +2171,18 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
+      <c r="AE44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX44" t="s">
+        <v>0</v>
+      </c>
       <c r="DJ44" s="3"/>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.2">
@@ -2146,6 +2315,15 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
+      <c r="AF49" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY49" t="s">
+        <v>0</v>
+      </c>
       <c r="DA49" s="4"/>
       <c r="DB49" s="4"/>
       <c r="DC49" s="4"/>
@@ -2158,7 +2336,9 @@
       <c r="DJ49" s="3"/>
     </row>
     <row r="50" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2712,11 +2892,11 @@
     </row>
     <row r="68" spans="1:114" x14ac:dyDescent="0.2">
       <c r="S68">
-        <f>MATCH("x",S2:S50)</f>
+        <f>MATCH("y",S2:S50)</f>
         <v>1</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:CE68" si="0">MATCH("x",T2:T50)</f>
+        <f t="shared" ref="T68:CE68" si="0">MATCH("y",T2:T50)</f>
         <v>1</v>
       </c>
       <c r="U68">
@@ -2761,218 +2941,218 @@
       </c>
       <c r="AE68">
         <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AF68">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AG68">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AH68">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AI68">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AJ68">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AK68">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AF68">
+      <c r="AL68">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AM68">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AG68">
+      <c r="AN68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AH68">
+      <c r="AP68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AQ68">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AI68">
+      <c r="AR68">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AS68">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AJ68">
+      <c r="AT68">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AU68">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AK68">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AL68">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AM68">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AN68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AO68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AP68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AQ68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AR68">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AS68">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AT68">
-        <f>MATCH("x",AT2:AT50)</f>
-        <v>5</v>
-      </c>
-      <c r="AU68">
+      <c r="AV68">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AW68">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AX68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AY68">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AZ68">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="BA68">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="BB68">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="BC68">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="BD68">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="BE68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="BF68">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="BG68">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="BH68">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BI68">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BJ68">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AV68">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AW68">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AX68">
+      <c r="BK68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BL68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BM68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BN68">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BO68">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BP68">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BQ68">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="BR68">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="BS68">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AY68">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AZ68">
+      <c r="BT68">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="BU68">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="BV68">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="BA68">
+      <c r="BW68">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="BB68">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="BC68">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="BD68">
+      <c r="BX68">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="BY68">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="BZ68">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="CA68">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="BE68">
+      <c r="CB68">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="CC68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CD68">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="BF68">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="BG68">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="BH68">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="BI68">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="BJ68">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="BK68">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="BL68">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="BM68">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="BN68">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="BO68">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="BP68">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="BQ68">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="BR68">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="BS68">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="BT68">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="BU68">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="BV68">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="BW68">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="BX68">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="BY68">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="BZ68">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="CA68">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="CB68">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="CC68" t="e">
+      <c r="CE68" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="CD68">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="CE68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
       <c r="CF68">
-        <f t="shared" ref="CF68:DF68" si="1">MATCH("x",CF2:CF50)</f>
+        <f t="shared" ref="CF68:DF68" si="1">MATCH("y",CF2:CF50)</f>
         <v>21</v>
       </c>
       <c r="CG68" t="e">
@@ -3024,11 +3204,11 @@
         <v>22</v>
       </c>
       <c r="CS68" t="e">
-        <f>MATCH("x",CS2:CS50)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="CT68">
-        <f>MATCH("x",CT2:CT50)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="CU68">
@@ -3506,15 +3686,15 @@
       </c>
       <c r="AE71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">30, 32, </v>
+        <v xml:space="preserve">30, 43, </v>
       </c>
       <c r="AF71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">31, 27, </v>
+        <v xml:space="preserve">31, 48, </v>
       </c>
       <c r="AG71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">32, 22, </v>
+        <v xml:space="preserve">32, 43, </v>
       </c>
       <c r="AH71" t="str">
         <f t="shared" si="4"/>
@@ -3522,7 +3702,7 @@
       </c>
       <c r="AI71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">34, 12, </v>
+        <v xml:space="preserve">34, 37, </v>
       </c>
       <c r="AJ71" t="str">
         <f t="shared" si="4"/>
@@ -3530,15 +3710,15 @@
       </c>
       <c r="AK71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">36, 5, </v>
+        <v xml:space="preserve">36, 32, </v>
       </c>
       <c r="AL71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">37, 3, </v>
+        <v xml:space="preserve">37, 17, </v>
       </c>
       <c r="AM71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">38, 2, </v>
+        <v xml:space="preserve">38, 27, </v>
       </c>
       <c r="AN71" t="str">
         <f t="shared" si="4"/>
@@ -3546,7 +3726,7 @@
       </c>
       <c r="AO71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">40, 1, </v>
+        <v xml:space="preserve">40, 22, </v>
       </c>
       <c r="AP71" t="str">
         <f t="shared" si="4"/>
@@ -3554,7 +3734,7 @@
       </c>
       <c r="AQ71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">42, 1, </v>
+        <v xml:space="preserve">42, 17, </v>
       </c>
       <c r="AR71" t="str">
         <f t="shared" si="4"/>
@@ -3562,7 +3742,7 @@
       </c>
       <c r="AS71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">44, 3, </v>
+        <v xml:space="preserve">44, 12, </v>
       </c>
       <c r="AT71" t="str">
         <f t="shared" si="4"/>
@@ -3598,11 +3778,11 @@
       </c>
       <c r="BB71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">53, 33, </v>
+        <v xml:space="preserve">53, 43, </v>
       </c>
       <c r="BC71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">54, 30, </v>
+        <v xml:space="preserve">54, 48, </v>
       </c>
       <c r="BD71" t="str">
         <f t="shared" si="4"/>
@@ -3686,11 +3866,11 @@
       </c>
       <c r="BX71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">75, 34, </v>
+        <v xml:space="preserve">75, 43, </v>
       </c>
       <c r="BY71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">76, 31, </v>
+        <v xml:space="preserve">76, 48, </v>
       </c>
       <c r="BZ71" t="str">
         <f t="shared" si="4"/>
@@ -3838,11 +4018,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4606FFFA-7D1D-694D-A508-2CAE0FBCF704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7973D-F3C2-BE45-8008-13FED70B0209}">
   <dimension ref="A1:EW73"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="CQ71" sqref="CQ71:CU71"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3851,7 +4031,7 @@
     <col min="114" max="153" width="3.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -4193,7 +4373,7 @@
       </c>
       <c r="DJ1" s="3"/>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4224,9 +4404,6 @@
       <c r="V2" t="s">
         <v>0</v>
       </c>
-      <c r="AM2" t="s">
-        <v>0</v>
-      </c>
       <c r="AN2" t="s">
         <v>0</v>
       </c>
@@ -4236,9 +4413,62 @@
       <c r="AP2" t="s">
         <v>0</v>
       </c>
+      <c r="AQ2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="2"/>
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="2"/>
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CF2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="2"/>
+      <c r="CM2" s="2"/>
+      <c r="CN2" s="2"/>
+      <c r="CO2" s="2"/>
+      <c r="CP2" s="2"/>
+      <c r="CQ2" s="2"/>
+      <c r="CR2" s="2"/>
+      <c r="CS2" s="2"/>
+      <c r="CT2" s="2"/>
+      <c r="CU2" s="2"/>
+      <c r="CV2" s="2"/>
+      <c r="CW2" s="2"/>
+      <c r="CX2" s="2"/>
+      <c r="CY2" s="2"/>
+      <c r="CZ2" s="2"/>
+      <c r="DA2" s="2"/>
+      <c r="DB2" s="2"/>
+      <c r="DC2" s="2"/>
+      <c r="DD2" s="2"/>
+      <c r="DE2" s="6"/>
+      <c r="DF2" s="6"/>
+      <c r="DG2" s="6"/>
+      <c r="DH2" s="6"/>
+      <c r="DI2" s="6"/>
       <c r="DJ2" s="3"/>
-    </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4260,15 +4490,61 @@
       <c r="W3" t="s">
         <v>0</v>
       </c>
-      <c r="AL3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AM3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CA3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CF3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CH3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="2"/>
+      <c r="CL3" s="2"/>
+      <c r="CM3" s="2"/>
+      <c r="CN3" s="2"/>
+      <c r="CO3" s="2"/>
+      <c r="CP3" s="2"/>
+      <c r="CQ3" s="2"/>
+      <c r="CR3" s="2"/>
+      <c r="CS3" s="2"/>
+      <c r="CT3" s="2"/>
+      <c r="CU3" s="2"/>
+      <c r="CV3" s="2"/>
+      <c r="CW3" s="2"/>
+      <c r="CX3" s="2"/>
+      <c r="CY3" s="2"/>
+      <c r="CZ3" s="2"/>
+      <c r="DA3" s="2"/>
+      <c r="DB3" s="2"/>
+      <c r="DC3" s="2"/>
+      <c r="DD3" s="2"/>
+      <c r="DE3" s="6"/>
+      <c r="DF3" s="6"/>
+      <c r="DG3" s="6"/>
+      <c r="DH3" s="6"/>
+      <c r="DI3" s="6"/>
       <c r="DJ3" s="3"/>
-    </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+    </row>
+    <row r="4" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4287,15 +4563,61 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="AK4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>0</v>
-      </c>
+      <c r="AL4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
+      <c r="CS4" s="2"/>
+      <c r="CT4" s="2"/>
+      <c r="CU4" s="2"/>
+      <c r="CV4" s="2"/>
+      <c r="CW4" s="2"/>
+      <c r="CX4" s="2"/>
+      <c r="CY4" s="2"/>
+      <c r="CZ4" s="2"/>
+      <c r="DA4" s="2"/>
+      <c r="DB4" s="2"/>
+      <c r="DC4" s="2"/>
+      <c r="DD4" s="2"/>
+      <c r="DE4" s="6"/>
+      <c r="DF4" s="6"/>
+      <c r="DG4" s="6"/>
+      <c r="DH4" s="6"/>
+      <c r="DI4" s="6"/>
       <c r="DJ4" s="3"/>
-    </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK4"/>
+      <c r="DL4"/>
+      <c r="DM4"/>
+      <c r="DN4"/>
+      <c r="DO4"/>
+      <c r="DP4"/>
+      <c r="DQ4"/>
+    </row>
+    <row r="5" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4317,9 +4639,55 @@
       <c r="X5" t="s">
         <v>0</v>
       </c>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="2"/>
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="2"/>
+      <c r="CI5" s="2"/>
+      <c r="CJ5" s="2"/>
+      <c r="CK5" s="2"/>
+      <c r="CL5" s="2"/>
+      <c r="CM5" s="2"/>
+      <c r="CN5" s="2"/>
+      <c r="CO5" s="2"/>
+      <c r="CP5" s="2"/>
+      <c r="CQ5" s="2"/>
+      <c r="CR5" s="2"/>
+      <c r="CS5" s="2"/>
+      <c r="CT5" s="2"/>
+      <c r="CU5" s="2"/>
+      <c r="CV5" s="2"/>
+      <c r="CW5" s="2"/>
+      <c r="CX5" s="2"/>
+      <c r="CY5" s="2"/>
+      <c r="CZ5" s="2"/>
+      <c r="DA5" s="2"/>
+      <c r="DB5" s="2"/>
+      <c r="DC5" s="2"/>
+      <c r="DD5" s="2"/>
+      <c r="DE5" s="6"/>
+      <c r="DF5" s="6"/>
+      <c r="DG5" s="6"/>
+      <c r="DH5" s="6"/>
+      <c r="DI5" s="6"/>
       <c r="DJ5" s="3"/>
-    </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK5"/>
+      <c r="DL5"/>
+      <c r="DM5"/>
+      <c r="DN5"/>
+      <c r="DO5"/>
+      <c r="DP5"/>
+      <c r="DQ5"/>
+    </row>
+    <row r="6" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4338,15 +4706,61 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="AJ6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>0</v>
-      </c>
+      <c r="AK6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="2"/>
+      <c r="BY6" s="2"/>
+      <c r="BZ6" s="2"/>
+      <c r="CA6" s="2"/>
+      <c r="CB6" s="2"/>
+      <c r="CC6" s="2"/>
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="2"/>
+      <c r="CF6" s="2"/>
+      <c r="CG6" s="2"/>
+      <c r="CH6" s="2"/>
+      <c r="CI6" s="2"/>
+      <c r="CJ6" s="2"/>
+      <c r="CK6" s="2"/>
+      <c r="CL6" s="2"/>
+      <c r="CM6" s="2"/>
+      <c r="CN6" s="2"/>
+      <c r="CO6" s="2"/>
+      <c r="CP6" s="2"/>
+      <c r="CQ6" s="2"/>
+      <c r="CR6" s="2"/>
+      <c r="CS6" s="2"/>
+      <c r="CT6" s="2"/>
+      <c r="CU6" s="2"/>
+      <c r="CV6" s="2"/>
+      <c r="CW6" s="2"/>
+      <c r="CX6" s="2"/>
+      <c r="CY6" s="2"/>
+      <c r="CZ6" s="2"/>
+      <c r="DA6" s="2"/>
+      <c r="DB6" s="2"/>
+      <c r="DC6" s="2"/>
+      <c r="DD6" s="2"/>
+      <c r="DE6" s="6"/>
+      <c r="DF6" s="6"/>
+      <c r="DG6" s="6"/>
+      <c r="DH6" s="6"/>
+      <c r="DI6" s="6"/>
       <c r="DJ6" s="3"/>
-    </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK6"/>
+      <c r="DL6"/>
+      <c r="DM6"/>
+      <c r="DN6"/>
+      <c r="DO6"/>
+      <c r="DP6"/>
+      <c r="DQ6"/>
+    </row>
+    <row r="7" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4365,9 +4779,55 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
+      <c r="BW7" s="2"/>
+      <c r="BX7" s="2"/>
+      <c r="BY7" s="2"/>
+      <c r="BZ7" s="2"/>
+      <c r="CA7" s="2"/>
+      <c r="CB7" s="2"/>
+      <c r="CC7" s="2"/>
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="2"/>
+      <c r="CF7" s="2"/>
+      <c r="CG7" s="2"/>
+      <c r="CH7" s="2"/>
+      <c r="CI7" s="2"/>
+      <c r="CJ7" s="2"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7" s="2"/>
+      <c r="CM7" s="2"/>
+      <c r="CN7" s="2"/>
+      <c r="CO7" s="2"/>
+      <c r="CP7" s="2"/>
+      <c r="CQ7" s="2"/>
+      <c r="CR7" s="2"/>
+      <c r="CS7" s="2"/>
+      <c r="CT7" s="2"/>
+      <c r="CU7" s="2"/>
+      <c r="CV7" s="2"/>
+      <c r="CW7" s="2"/>
+      <c r="CX7" s="2"/>
+      <c r="CY7" s="2"/>
+      <c r="CZ7" s="2"/>
+      <c r="DA7" s="2"/>
+      <c r="DB7" s="2"/>
+      <c r="DC7" s="2"/>
+      <c r="DD7" s="2"/>
+      <c r="DE7" s="6"/>
+      <c r="DF7" s="6"/>
+      <c r="DG7" s="6"/>
+      <c r="DH7" s="6"/>
+      <c r="DI7" s="6"/>
       <c r="DJ7" s="3"/>
-    </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+    </row>
+    <row r="8" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4389,18 +4849,64 @@
       <c r="Y8" t="s">
         <v>0</v>
       </c>
-      <c r="BH8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>0</v>
-      </c>
+      <c r="BK8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="2"/>
+      <c r="BX8" s="2"/>
+      <c r="BY8" s="2"/>
+      <c r="BZ8" s="2"/>
+      <c r="CA8" s="2"/>
+      <c r="CB8" s="2"/>
+      <c r="CC8" s="2"/>
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="2"/>
+      <c r="CF8" s="2"/>
+      <c r="CG8" s="2"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8" s="2"/>
+      <c r="CJ8" s="2"/>
+      <c r="CK8" s="2"/>
+      <c r="CL8" s="2"/>
+      <c r="CM8" s="2"/>
+      <c r="CN8" s="2"/>
+      <c r="CO8" s="2"/>
+      <c r="CP8" s="2"/>
+      <c r="CQ8" s="2"/>
+      <c r="CR8" s="2"/>
+      <c r="CS8" s="2"/>
+      <c r="CT8" s="2"/>
+      <c r="CU8" s="2"/>
+      <c r="CV8" s="2"/>
+      <c r="CW8" s="2"/>
+      <c r="CX8" s="2"/>
+      <c r="CY8" s="2"/>
+      <c r="CZ8" s="2"/>
+      <c r="DA8" s="2"/>
+      <c r="DB8" s="2"/>
+      <c r="DC8" s="2"/>
+      <c r="DD8" s="2"/>
+      <c r="DE8" s="6"/>
+      <c r="DF8" s="6"/>
+      <c r="DG8" s="6"/>
+      <c r="DH8" s="6"/>
+      <c r="DI8" s="6"/>
       <c r="DJ8" s="3"/>
-    </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK8"/>
+      <c r="DL8"/>
+      <c r="DM8"/>
+      <c r="DN8"/>
+      <c r="DO8"/>
+      <c r="DP8"/>
+      <c r="DQ8"/>
+    </row>
+    <row r="9" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4419,21 +4925,67 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="AI9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>0</v>
-      </c>
+      <c r="AJ9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="2"/>
+      <c r="BX9" s="2"/>
+      <c r="BY9" s="2"/>
+      <c r="BZ9" s="2"/>
+      <c r="CA9" s="2"/>
+      <c r="CB9" s="2"/>
+      <c r="CC9" s="2"/>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="2"/>
+      <c r="CF9" s="2"/>
+      <c r="CG9" s="2"/>
+      <c r="CH9" s="2"/>
+      <c r="CI9" s="2"/>
+      <c r="CJ9" s="2"/>
+      <c r="CK9" s="2"/>
+      <c r="CL9" s="2"/>
+      <c r="CM9" s="2"/>
+      <c r="CN9" s="2"/>
+      <c r="CO9" s="2"/>
+      <c r="CP9" s="2"/>
+      <c r="CQ9" s="2"/>
+      <c r="CR9" s="2"/>
+      <c r="CS9" s="2"/>
+      <c r="CT9" s="2"/>
+      <c r="CU9" s="2"/>
+      <c r="CV9" s="2"/>
+      <c r="CW9" s="2"/>
+      <c r="CX9" s="2"/>
+      <c r="CY9" s="2"/>
+      <c r="CZ9" s="2"/>
+      <c r="DA9" s="2"/>
+      <c r="DB9" s="2"/>
+      <c r="DC9" s="2"/>
+      <c r="DD9" s="2"/>
+      <c r="DE9" s="6"/>
+      <c r="DF9" s="6"/>
+      <c r="DG9" s="6"/>
+      <c r="DH9" s="6"/>
+      <c r="DI9" s="6"/>
       <c r="DJ9" s="3"/>
-    </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK9"/>
+      <c r="DL9"/>
+      <c r="DM9"/>
+      <c r="DN9"/>
+      <c r="DO9"/>
+      <c r="DP9"/>
+      <c r="DQ9"/>
+    </row>
+    <row r="10" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4452,15 +5004,61 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="BF10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>0</v>
-      </c>
+      <c r="BI10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="2"/>
+      <c r="BX10" s="2"/>
+      <c r="BY10" s="2"/>
+      <c r="BZ10" s="2"/>
+      <c r="CA10" s="2"/>
+      <c r="CB10" s="2"/>
+      <c r="CC10" s="2"/>
+      <c r="CD10" s="2"/>
+      <c r="CE10" s="2"/>
+      <c r="CF10" s="2"/>
+      <c r="CG10" s="2"/>
+      <c r="CH10" s="2"/>
+      <c r="CI10" s="2"/>
+      <c r="CJ10" s="2"/>
+      <c r="CK10" s="2"/>
+      <c r="CL10" s="2"/>
+      <c r="CM10" s="2"/>
+      <c r="CN10" s="2"/>
+      <c r="CO10" s="2"/>
+      <c r="CP10" s="2"/>
+      <c r="CQ10" s="2"/>
+      <c r="CR10" s="2"/>
+      <c r="CS10" s="2"/>
+      <c r="CT10" s="2"/>
+      <c r="CU10" s="2"/>
+      <c r="CV10" s="2"/>
+      <c r="CW10" s="2"/>
+      <c r="CX10" s="2"/>
+      <c r="CY10" s="2"/>
+      <c r="CZ10" s="2"/>
+      <c r="DA10" s="2"/>
+      <c r="DB10" s="2"/>
+      <c r="DC10" s="2"/>
+      <c r="DD10" s="2"/>
+      <c r="DE10" s="6"/>
+      <c r="DF10" s="6"/>
+      <c r="DG10" s="6"/>
+      <c r="DH10" s="6"/>
+      <c r="DI10" s="6"/>
       <c r="DJ10" s="3"/>
-    </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK10"/>
+      <c r="DL10"/>
+      <c r="DM10"/>
+      <c r="DN10"/>
+      <c r="DO10"/>
+      <c r="DP10"/>
+      <c r="DQ10"/>
+    </row>
+    <row r="11" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4479,9 +5077,55 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
+      <c r="BW11" s="2"/>
+      <c r="BX11" s="2"/>
+      <c r="BY11" s="2"/>
+      <c r="BZ11" s="2"/>
+      <c r="CA11" s="2"/>
+      <c r="CB11" s="2"/>
+      <c r="CC11" s="2"/>
+      <c r="CD11" s="2"/>
+      <c r="CE11" s="2"/>
+      <c r="CF11" s="2"/>
+      <c r="CG11" s="2"/>
+      <c r="CH11" s="2"/>
+      <c r="CI11" s="2"/>
+      <c r="CJ11" s="2"/>
+      <c r="CK11" s="2"/>
+      <c r="CL11" s="2"/>
+      <c r="CM11" s="2"/>
+      <c r="CN11" s="2"/>
+      <c r="CO11" s="2"/>
+      <c r="CP11" s="2"/>
+      <c r="CQ11" s="2"/>
+      <c r="CR11" s="2"/>
+      <c r="CS11" s="2"/>
+      <c r="CT11" s="2"/>
+      <c r="CU11" s="2"/>
+      <c r="CV11" s="2"/>
+      <c r="CW11" s="2"/>
+      <c r="CX11" s="2"/>
+      <c r="CY11" s="2"/>
+      <c r="CZ11" s="2"/>
+      <c r="DA11" s="2"/>
+      <c r="DB11" s="2"/>
+      <c r="DC11" s="2"/>
+      <c r="DD11" s="2"/>
+      <c r="DE11" s="6"/>
+      <c r="DF11" s="6"/>
+      <c r="DG11" s="6"/>
+      <c r="DH11" s="6"/>
+      <c r="DI11" s="6"/>
       <c r="DJ11" s="3"/>
-    </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK11"/>
+      <c r="DL11"/>
+      <c r="DM11"/>
+      <c r="DN11"/>
+      <c r="DO11"/>
+      <c r="DP11"/>
+      <c r="DQ11"/>
+    </row>
+    <row r="12" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4503,15 +5147,65 @@
       <c r="Z12" t="s">
         <v>0</v>
       </c>
-      <c r="BE12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>0</v>
-      </c>
+      <c r="BH12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX12" s="2"/>
+      <c r="BY12" s="2"/>
+      <c r="BZ12" s="2"/>
+      <c r="CA12" s="2"/>
+      <c r="CB12" s="2"/>
+      <c r="CC12" s="2"/>
+      <c r="CD12" s="2"/>
+      <c r="CE12" s="2"/>
+      <c r="CF12" s="2"/>
+      <c r="CG12" s="2"/>
+      <c r="CH12" s="2"/>
+      <c r="CI12" s="2"/>
+      <c r="CJ12" s="2"/>
+      <c r="CK12" s="2"/>
+      <c r="CL12" s="2"/>
+      <c r="CM12" s="2"/>
+      <c r="CN12" s="2"/>
+      <c r="CO12" s="2"/>
+      <c r="CP12" s="2"/>
+      <c r="CQ12" s="2"/>
+      <c r="CR12" s="2"/>
+      <c r="CS12" s="2"/>
+      <c r="CT12" s="2"/>
+      <c r="CU12" s="2"/>
+      <c r="CV12" s="2"/>
+      <c r="CW12" s="2"/>
+      <c r="CX12" s="2"/>
+      <c r="CY12" s="2"/>
+      <c r="CZ12" s="2"/>
+      <c r="DA12" s="2"/>
+      <c r="DB12" s="2"/>
+      <c r="DC12" s="2"/>
+      <c r="DD12" s="2"/>
+      <c r="DE12" s="6"/>
+      <c r="DF12" s="6"/>
+      <c r="DG12" s="6"/>
+      <c r="DH12" s="6"/>
+      <c r="DI12" s="6"/>
       <c r="DJ12" s="3"/>
-    </row>
-    <row r="13" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DK12"/>
+      <c r="DL12"/>
+      <c r="DM12"/>
+      <c r="DN12"/>
+      <c r="DO12"/>
+      <c r="DP12"/>
+      <c r="DQ12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4530,15 +5224,15 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="AH13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="s">
+      <c r="AI13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="s">
         <v>0</v>
       </c>
       <c r="DJ13" s="3"/>
     </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4559,7 +5253,7 @@
       <c r="R14" s="2"/>
       <c r="DJ14" s="3"/>
     </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4578,15 +5272,15 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="BD15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN15" t="s">
+      <c r="BG15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="s">
         <v>0</v>
       </c>
       <c r="DJ15" s="3"/>
     </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4605,7 +5299,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="DJ16"/>
+      <c r="DJ16" s="3"/>
     </row>
     <row r="17" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -4650,10 +5344,10 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="AG18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="s">
+      <c r="AH18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="s">
         <v>0</v>
       </c>
       <c r="DJ18" s="3"/>
@@ -4677,10 +5371,10 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="BC19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO19" t="s">
+      <c r="BF19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR19" t="s">
         <v>0</v>
       </c>
       <c r="DJ19" s="3"/>
@@ -4725,6 +5419,18 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
+      <c r="CH21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>0</v>
+      </c>
       <c r="DJ21" s="3"/>
     </row>
     <row r="22" spans="1:114" x14ac:dyDescent="0.2">
@@ -4746,6 +5452,12 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
+      <c r="CF22" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>0</v>
+      </c>
       <c r="DJ22" s="3"/>
     </row>
     <row r="23" spans="1:114" x14ac:dyDescent="0.2">
@@ -4767,22 +5479,22 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="BB23" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP23" t="s">
+      <c r="AG23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS23" t="s">
         <v>0</v>
       </c>
       <c r="CD23" t="s">
         <v>0</v>
       </c>
-      <c r="CF23" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH23" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ23" t="s">
+      <c r="CR23" t="s">
         <v>0</v>
       </c>
       <c r="DJ23" s="3"/>
@@ -4809,12 +5521,6 @@
       <c r="AB24" t="s">
         <v>0</v>
       </c>
-      <c r="CB24" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL24" t="s">
-        <v>0</v>
-      </c>
       <c r="DJ24" s="3"/>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.2">
@@ -4836,16 +5542,10 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="AF25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN25" t="s">
+      <c r="CB25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT25" t="s">
         <v>0</v>
       </c>
       <c r="DJ25" s="3"/>
@@ -4869,12 +5569,6 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="BX26" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP26" t="s">
-        <v>0</v>
-      </c>
       <c r="DJ26" s="3"/>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.2">
@@ -4896,10 +5590,16 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="BW27" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ27" t="s">
+      <c r="BD27" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU27" t="s">
         <v>0</v>
       </c>
       <c r="DJ27" s="3"/>
@@ -4923,6 +5623,12 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
+      <c r="AF28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>0</v>
+      </c>
       <c r="DJ28" s="3"/>
     </row>
     <row r="29" spans="1:114" x14ac:dyDescent="0.2">
@@ -4944,16 +5650,10 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="BA29" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ29" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV29" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR29" t="s">
+      <c r="BZ29" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV29" t="s">
         <v>0</v>
       </c>
       <c r="DJ29" s="3"/>
@@ -5001,13 +5701,10 @@
       <c r="AC31" t="s">
         <v>0</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="BC31" t="s">
         <v>0</v>
       </c>
       <c r="BU31" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS31" t="s">
         <v>0</v>
       </c>
       <c r="DJ31" s="3"/>
@@ -5044,7 +5741,10 @@
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
-      <c r="AX32" t="s">
+      <c r="BY32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW32" t="s">
         <v>0</v>
       </c>
       <c r="DJ32" s="3"/>
@@ -5068,6 +5768,9 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
+      <c r="AE33" t="s">
+        <v>0</v>
+      </c>
       <c r="AF33" s="5"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
@@ -5076,7 +5779,7 @@
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
       <c r="AM33" s="5"/>
-      <c r="AP33" s="5"/>
+      <c r="AN33" s="5"/>
       <c r="AQ33" s="5"/>
       <c r="AR33" s="5"/>
       <c r="AS33" s="5"/>
@@ -5086,6 +5789,9 @@
       <c r="AW33" s="5"/>
       <c r="AX33" s="5"/>
       <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
       <c r="DJ33" s="3"/>
     </row>
     <row r="34" spans="1:114" x14ac:dyDescent="0.2">
@@ -5110,10 +5816,10 @@
       <c r="AZ34" t="s">
         <v>0</v>
       </c>
-      <c r="BT34" t="s">
-        <v>0</v>
-      </c>
-      <c r="CT34" t="s">
+      <c r="BB34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV34" t="s">
         <v>0</v>
       </c>
       <c r="DJ34" s="3"/>
@@ -5137,7 +5843,10 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="BR35" t="s">
+      <c r="BX35" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX35" t="s">
         <v>0</v>
       </c>
       <c r="DJ35" s="3"/>
@@ -5206,13 +5915,13 @@
       <c r="AD38" t="s">
         <v>0</v>
       </c>
-      <c r="AY38" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS38" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU38" t="s">
+      <c r="BA38" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>0</v>
+      </c>
+      <c r="CY38" t="s">
         <v>0</v>
       </c>
       <c r="DJ38" s="3"/>
@@ -5334,7 +6043,9 @@
       <c r="DJ39" s="3"/>
     </row>
     <row r="40" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5352,6 +6063,9 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
+      <c r="AM40" t="s">
+        <v>1</v>
+      </c>
       <c r="DJ40" s="3"/>
     </row>
     <row r="41" spans="1:114" x14ac:dyDescent="0.2">
@@ -5580,7 +6294,9 @@
       <c r="DJ49" s="3"/>
     </row>
     <row r="50" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5598,6 +6314,9 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
+      <c r="AM50" t="s">
+        <v>1</v>
+      </c>
       <c r="DA50" s="4"/>
       <c r="DB50" s="4"/>
       <c r="DC50" s="4"/>
@@ -6183,203 +6902,203 @@
       </c>
       <c r="AE68">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF68">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AG68">
         <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AH68">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AH68">
+      <c r="AI68">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AI68">
+      <c r="AJ68">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ68">
+      <c r="AK68">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AK68">
+      <c r="AL68">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AL68">
+      <c r="AM68">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AM68">
+      <c r="AN68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AN68">
+      <c r="AO68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AO68">
+      <c r="AP68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AP68">
+      <c r="AQ68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AQ68">
+      <c r="AR68">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AR68">
+      <c r="AS68">
         <f t="shared" si="0"/>
         <v>3</v>
-      </c>
-      <c r="AS68">
-        <f t="shared" si="0"/>
-        <v>5</v>
       </c>
       <c r="AT68">
         <f>MATCH("x",AT2:AT50)</f>
+        <v>5</v>
+      </c>
+      <c r="AU68">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AU68">
+      <c r="AV68">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AV68">
+      <c r="AW68">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AW68">
+      <c r="AX68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AY68">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AZ68">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="BA68">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="BB68">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="BC68">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="BD68">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="BE68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="BF68">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="BG68">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="BH68">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BI68">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BJ68">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BK68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BL68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BM68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BN68">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BO68">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BP68">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BQ68">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="BR68">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="BS68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="BT68">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="BU68">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="BV68">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="BW68">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="BX68">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="BY68">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="BZ68">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="CA68">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="CB68">
         <f t="shared" si="0"/>
         <v>24</v>
-      </c>
-      <c r="AX68">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="AY68">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="AZ68">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="BA68">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="BB68">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="BC68">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="BD68">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="BE68">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="BF68">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="BG68">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="BH68">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="BI68">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="BJ68">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="BK68">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="BL68">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="BM68">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="BN68">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="BO68">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="BP68">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="BQ68">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="BR68">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="BS68">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="BT68">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="BU68">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="BV68">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="BW68">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="BX68">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="BY68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BZ68">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="CA68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CB68">
-        <f t="shared" si="0"/>
-        <v>23</v>
       </c>
       <c r="CC68" t="e">
         <f t="shared" si="0"/>
@@ -6395,7 +7114,7 @@
       </c>
       <c r="CF68">
         <f t="shared" ref="CF68:DF68" si="1">MATCH("x",CF2:CF50)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="CG68" t="e">
         <f t="shared" si="1"/>
@@ -6403,7 +7122,7 @@
       </c>
       <c r="CH68">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CI68" t="e">
         <f t="shared" si="1"/>
@@ -6411,7 +7130,7 @@
       </c>
       <c r="CJ68">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CK68" t="e">
         <f t="shared" si="1"/>
@@ -6419,7 +7138,7 @@
       </c>
       <c r="CL68">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="CM68" t="e">
         <f t="shared" si="1"/>
@@ -6427,7 +7146,7 @@
       </c>
       <c r="CN68">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="CO68" t="e">
         <f t="shared" si="1"/>
@@ -6435,43 +7154,43 @@
       </c>
       <c r="CP68">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="CQ68">
+        <v>21</v>
+      </c>
+      <c r="CQ68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CR68">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="CS68" t="e">
+        <f>MATCH("x",CS2:CS50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CT68">
+        <f>MATCH("x",CT2:CT50)</f>
+        <v>24</v>
+      </c>
+      <c r="CU68">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="CR68">
+      <c r="CV68">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="CS68">
-        <f>MATCH("x",CS2:CS50)</f>
-        <v>30</v>
-      </c>
-      <c r="CT68">
-        <f>MATCH("x",CT2:CT50)</f>
-        <v>33</v>
-      </c>
-      <c r="CU68">
+      <c r="CW68">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="CX68">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="CY68">
         <f t="shared" si="1"/>
         <v>37</v>
-      </c>
-      <c r="CV68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CW68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CX68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CY68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
       </c>
       <c r="CZ68" t="e">
         <f t="shared" si="1"/>
@@ -6928,39 +7647,39 @@
       </c>
       <c r="AE71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">30, 30, </v>
+        <v xml:space="preserve">30, 32, </v>
       </c>
       <c r="AF71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">31, 24, </v>
+        <v xml:space="preserve">31, 27, </v>
       </c>
       <c r="AG71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">32, 17, </v>
+        <v xml:space="preserve">32, 22, </v>
       </c>
       <c r="AH71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">33, 12, </v>
+        <v xml:space="preserve">33, 17, </v>
       </c>
       <c r="AI71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">34, 8, </v>
+        <v xml:space="preserve">34, 12, </v>
       </c>
       <c r="AJ71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">35, 5, </v>
+        <v xml:space="preserve">35, 8, </v>
       </c>
       <c r="AK71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">36, 3, </v>
+        <v xml:space="preserve">36, 5, </v>
       </c>
       <c r="AL71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">37, 2, </v>
+        <v xml:space="preserve">37, 3, </v>
       </c>
       <c r="AM71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">38, 1, </v>
+        <v xml:space="preserve">38, 2, </v>
       </c>
       <c r="AN71" t="str">
         <f t="shared" si="4"/>
@@ -6976,39 +7695,39 @@
       </c>
       <c r="AQ71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">42, 2, </v>
+        <v xml:space="preserve">42, 1, </v>
       </c>
       <c r="AR71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">43, 3, </v>
+        <v xml:space="preserve">43, 2, </v>
       </c>
       <c r="AS71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">44, 5, </v>
+        <v xml:space="preserve">44, 3, </v>
       </c>
       <c r="AT71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">45, 8, </v>
+        <v xml:space="preserve">45, 5, </v>
       </c>
       <c r="AU71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">46, 12, </v>
+        <v xml:space="preserve">46, 8, </v>
       </c>
       <c r="AV71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">47, 17, </v>
+        <v xml:space="preserve">47, 12, </v>
       </c>
       <c r="AW71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">48, 24, </v>
+        <v xml:space="preserve">48, 17, </v>
       </c>
       <c r="AX71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">49, 31, </v>
+        <v xml:space="preserve">49, 22, </v>
       </c>
       <c r="AY71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">50, 37, </v>
+        <v xml:space="preserve">50, 27, </v>
       </c>
       <c r="AZ71" t="str">
         <f t="shared" si="4"/>
@@ -7016,83 +7735,83 @@
       </c>
       <c r="BA71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">52, 28, </v>
+        <v xml:space="preserve">52, 37, </v>
       </c>
       <c r="BB71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">53, 22, </v>
+        <v xml:space="preserve">53, 33, </v>
       </c>
       <c r="BC71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">54, 18, </v>
+        <v xml:space="preserve">54, 30, </v>
       </c>
       <c r="BD71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">55, 14, </v>
+        <v xml:space="preserve">55, 26, </v>
       </c>
       <c r="BE71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">56, 11, </v>
+        <v xml:space="preserve">56, 22, </v>
       </c>
       <c r="BF71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">57, 9, </v>
+        <v xml:space="preserve">57, 18, </v>
       </c>
       <c r="BG71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">58, 8, </v>
+        <v xml:space="preserve">58, 14, </v>
       </c>
       <c r="BH71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">59, 7, </v>
+        <v xml:space="preserve">59, 11, </v>
       </c>
       <c r="BI71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">60, 7, </v>
+        <v xml:space="preserve">60, 9, </v>
       </c>
       <c r="BJ71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">61, 7, </v>
+        <v xml:space="preserve">61, 8, </v>
       </c>
       <c r="BK71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">62, 8, </v>
+        <v xml:space="preserve">62, 7, </v>
       </c>
       <c r="BL71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">63, 9, </v>
+        <v xml:space="preserve">63, 7, </v>
       </c>
       <c r="BM71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">64, 11, </v>
+        <v xml:space="preserve">64, 7, </v>
       </c>
       <c r="BN71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">65, 14, </v>
+        <v xml:space="preserve">65, 8, </v>
       </c>
       <c r="BO71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">66, 18, </v>
+        <v xml:space="preserve">66, 9, </v>
       </c>
       <c r="BP71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">67, 22, </v>
+        <v xml:space="preserve">67, 11, </v>
       </c>
       <c r="BQ71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">68, 28, </v>
+        <v xml:space="preserve">68, 14, </v>
       </c>
       <c r="BR71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">69, 34, </v>
+        <v xml:space="preserve">69, 18, </v>
       </c>
       <c r="BS71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">70, 37, </v>
+        <v xml:space="preserve">70, 22, </v>
       </c>
       <c r="BT71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">71, 33, </v>
+        <v xml:space="preserve">71, 26, </v>
       </c>
       <c r="BU71" t="str">
         <f t="shared" si="4"/>
@@ -7100,31 +7819,31 @@
       </c>
       <c r="BV71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">73, 28, </v>
+        <v xml:space="preserve">73, 33, </v>
       </c>
       <c r="BW71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">74, 26, </v>
+        <v xml:space="preserve">74, 37, </v>
       </c>
       <c r="BX71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">75, 25, </v>
-      </c>
-      <c r="BY71" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v xml:space="preserve">75, 34, </v>
+      </c>
+      <c r="BY71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">76, 31, </v>
       </c>
       <c r="BZ71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">77, 24, </v>
-      </c>
-      <c r="CA71" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v xml:space="preserve">77, 28, </v>
+      </c>
+      <c r="CA71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">78, 26, </v>
       </c>
       <c r="CB71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">79, 23, </v>
+        <v xml:space="preserve">79, 24, </v>
       </c>
       <c r="CC71" t="e">
         <f t="shared" si="4"/>
@@ -7140,7 +7859,7 @@
       </c>
       <c r="CF71" t="str">
         <f t="shared" ref="CF71:DF71" si="5">CONCATENATE(CF69,", ", CF68, ", ")</f>
-        <v xml:space="preserve">83, 22, </v>
+        <v xml:space="preserve">83, 21, </v>
       </c>
       <c r="CG71" t="e">
         <f t="shared" si="5"/>
@@ -7148,7 +7867,7 @@
       </c>
       <c r="CH71" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">85, 22, </v>
+        <v xml:space="preserve">85, 20, </v>
       </c>
       <c r="CI71" t="e">
         <f t="shared" si="5"/>
@@ -7156,7 +7875,7 @@
       </c>
       <c r="CJ71" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">87, 22, </v>
+        <v xml:space="preserve">87, 20, </v>
       </c>
       <c r="CK71" t="e">
         <f t="shared" si="5"/>
@@ -7164,7 +7883,7 @@
       </c>
       <c r="CL71" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">89, 23, </v>
+        <v xml:space="preserve">89, 20, </v>
       </c>
       <c r="CM71" t="e">
         <f t="shared" si="5"/>
@@ -7172,7 +7891,7 @@
       </c>
       <c r="CN71" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">91, 24, </v>
+        <v xml:space="preserve">91, 20, </v>
       </c>
       <c r="CO71" t="e">
         <f t="shared" si="5"/>
@@ -7180,3482 +7899,43 @@
       </c>
       <c r="CP71" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">93, 25, </v>
-      </c>
-      <c r="CQ71" t="str">
+        <v xml:space="preserve">93, 21, </v>
+      </c>
+      <c r="CQ71" t="e">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">94, 26, </v>
+        <v>#N/A</v>
       </c>
       <c r="CR71" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">95, 28, </v>
-      </c>
-      <c r="CS71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">96, 30, </v>
-      </c>
-      <c r="CT71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">97, 33, </v>
-      </c>
-      <c r="CU71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">98, 37, </v>
-      </c>
-      <c r="CV71" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CW71" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CX71" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CY71" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CZ71" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DA71" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DB71" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DC71" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DD71" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DE71" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DF71" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DJ71" s="3"/>
-    </row>
-    <row r="72" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="DJ72" s="3"/>
-    </row>
-    <row r="73" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="DJ73" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E8111D-37ED-3C49-B41C-F1A2143E8CA4}">
-  <dimension ref="A1:EW73"/>
-  <sheetViews>
-    <sheetView topLeftCell="I12" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="S71" sqref="S71:CR71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="19" max="19" width="3.1640625" customWidth="1"/>
-    <col min="114" max="153" width="3.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
-        <v>23</v>
-      </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
-      <c r="Z1">
-        <v>25</v>
-      </c>
-      <c r="AA1">
-        <v>26</v>
-      </c>
-      <c r="AB1">
-        <v>27</v>
-      </c>
-      <c r="AC1">
-        <v>28</v>
-      </c>
-      <c r="AD1">
-        <v>29</v>
-      </c>
-      <c r="AE1">
-        <v>30</v>
-      </c>
-      <c r="AF1">
-        <v>31</v>
-      </c>
-      <c r="AG1">
-        <v>32</v>
-      </c>
-      <c r="AH1">
-        <v>33</v>
-      </c>
-      <c r="AI1">
-        <v>34</v>
-      </c>
-      <c r="AJ1">
-        <v>35</v>
-      </c>
-      <c r="AK1">
-        <v>36</v>
-      </c>
-      <c r="AL1">
-        <v>37</v>
-      </c>
-      <c r="AM1">
-        <v>38</v>
-      </c>
-      <c r="AN1">
-        <v>39</v>
-      </c>
-      <c r="AO1">
-        <v>40</v>
-      </c>
-      <c r="AP1">
-        <v>41</v>
-      </c>
-      <c r="AQ1">
-        <v>42</v>
-      </c>
-      <c r="AR1">
-        <v>43</v>
-      </c>
-      <c r="AS1">
-        <v>44</v>
-      </c>
-      <c r="AT1">
-        <v>45</v>
-      </c>
-      <c r="AU1">
-        <v>46</v>
-      </c>
-      <c r="AV1">
-        <v>47</v>
-      </c>
-      <c r="AW1">
-        <v>48</v>
-      </c>
-      <c r="AX1">
-        <v>49</v>
-      </c>
-      <c r="AY1">
-        <v>50</v>
-      </c>
-      <c r="AZ1">
-        <v>51</v>
-      </c>
-      <c r="BA1">
-        <v>52</v>
-      </c>
-      <c r="BB1">
-        <v>53</v>
-      </c>
-      <c r="BC1">
-        <v>54</v>
-      </c>
-      <c r="BD1">
-        <v>55</v>
-      </c>
-      <c r="BE1">
-        <v>56</v>
-      </c>
-      <c r="BF1">
-        <v>57</v>
-      </c>
-      <c r="BG1">
-        <v>58</v>
-      </c>
-      <c r="BH1">
-        <v>59</v>
-      </c>
-      <c r="BI1">
-        <v>60</v>
-      </c>
-      <c r="BJ1">
-        <v>61</v>
-      </c>
-      <c r="BK1">
-        <v>62</v>
-      </c>
-      <c r="BL1">
-        <v>63</v>
-      </c>
-      <c r="BM1">
-        <v>64</v>
-      </c>
-      <c r="BN1">
-        <v>65</v>
-      </c>
-      <c r="BO1">
-        <v>66</v>
-      </c>
-      <c r="BP1">
-        <v>67</v>
-      </c>
-      <c r="BQ1">
-        <v>68</v>
-      </c>
-      <c r="BR1">
-        <v>69</v>
-      </c>
-      <c r="BS1">
-        <v>70</v>
-      </c>
-      <c r="BT1">
-        <v>71</v>
-      </c>
-      <c r="BU1">
-        <v>72</v>
-      </c>
-      <c r="BV1">
-        <v>73</v>
-      </c>
-      <c r="BW1">
-        <v>74</v>
-      </c>
-      <c r="BX1">
-        <v>75</v>
-      </c>
-      <c r="BY1">
-        <v>76</v>
-      </c>
-      <c r="BZ1">
-        <v>77</v>
-      </c>
-      <c r="CA1">
-        <v>78</v>
-      </c>
-      <c r="CB1">
-        <v>79</v>
-      </c>
-      <c r="CC1">
-        <v>80</v>
-      </c>
-      <c r="CD1">
-        <v>81</v>
-      </c>
-      <c r="CE1">
-        <v>82</v>
-      </c>
-      <c r="CF1">
-        <v>83</v>
-      </c>
-      <c r="CG1">
-        <v>84</v>
-      </c>
-      <c r="CH1">
-        <v>85</v>
-      </c>
-      <c r="CI1">
-        <v>86</v>
-      </c>
-      <c r="CJ1">
-        <v>87</v>
-      </c>
-      <c r="CK1">
-        <v>88</v>
-      </c>
-      <c r="CL1">
-        <v>89</v>
-      </c>
-      <c r="CM1">
-        <v>90</v>
-      </c>
-      <c r="CN1">
-        <v>91</v>
-      </c>
-      <c r="CO1">
-        <v>92</v>
-      </c>
-      <c r="CP1">
-        <v>93</v>
-      </c>
-      <c r="CQ1">
-        <v>94</v>
-      </c>
-      <c r="CR1">
-        <v>95</v>
-      </c>
-      <c r="CS1">
-        <v>96</v>
-      </c>
-      <c r="CT1">
-        <v>97</v>
-      </c>
-      <c r="CU1">
-        <v>98</v>
-      </c>
-      <c r="CV1">
-        <v>99</v>
-      </c>
-      <c r="CW1">
-        <v>100</v>
-      </c>
-      <c r="CX1">
-        <v>101</v>
-      </c>
-      <c r="CY1">
-        <v>102</v>
-      </c>
-      <c r="CZ1">
-        <v>103</v>
-      </c>
-      <c r="DA1">
-        <v>104</v>
-      </c>
-      <c r="DB1">
-        <v>105</v>
-      </c>
-      <c r="DC1">
-        <v>106</v>
-      </c>
-      <c r="DD1">
-        <v>107</v>
-      </c>
-      <c r="DE1">
-        <v>108</v>
-      </c>
-      <c r="DF1">
-        <v>109</v>
-      </c>
-      <c r="DG1">
-        <v>110</v>
-      </c>
-      <c r="DH1">
-        <v>111</v>
-      </c>
-      <c r="DI1">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="3"/>
-    </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ2" s="3"/>
-    </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="V3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ3" s="3"/>
-    </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="AJ4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ4" s="3"/>
-    </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="W5" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ5" s="3"/>
-    </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="AI6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ6" s="3"/>
-    </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="BE7" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ7" s="3"/>
-    </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="X8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ8" s="3"/>
-    </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="AH9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ9" s="3"/>
-    </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="BC10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ10" s="3"/>
-    </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="BV11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ11" s="3"/>
-    </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="Y12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ12" s="3"/>
-    </row>
-    <row r="13" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="AG13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ13" s="3"/>
-    </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="BT14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ14" s="3"/>
-    </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="DJ15" s="3"/>
-    </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="DJ16"/>
-    </row>
-    <row r="17" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="Z17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL17" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ17" s="3"/>
-    </row>
-    <row r="18" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="AF18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ18" s="3"/>
-    </row>
-    <row r="19" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="DJ19" s="3"/>
-    </row>
-    <row r="20" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="CI20" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ20" s="3"/>
-    </row>
-    <row r="21" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="BR21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ21" s="3"/>
-    </row>
-    <row r="22" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="AZ22" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ22" s="3"/>
-    </row>
-    <row r="23" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="CH23" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO23" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ23" s="3"/>
-    </row>
-    <row r="24" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="AA24" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ24" s="3"/>
-    </row>
-    <row r="25" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="AE25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ25" s="3"/>
-    </row>
-    <row r="26" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="BQ26" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB26" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ26" s="3"/>
-    </row>
-    <row r="27" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="CG27" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP27" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ27" s="3"/>
-    </row>
-    <row r="28" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="DJ28" s="3"/>
-    </row>
-    <row r="29" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="AY29" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ29" s="3"/>
-    </row>
-    <row r="30" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="DJ30" s="3"/>
-    </row>
-    <row r="31" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="AB31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF31" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ31" s="3"/>
-    </row>
-    <row r="32" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AV32" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ32" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ32" s="3"/>
-    </row>
-    <row r="33" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="BP33" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC33" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ33" s="3"/>
-    </row>
-    <row r="34" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="AX34" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ34" s="3"/>
-    </row>
-    <row r="35" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="BN35" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE35" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ35" s="3"/>
-    </row>
-    <row r="36" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="DJ36" s="3"/>
-    </row>
-    <row r="37" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="DJ37" s="3"/>
-    </row>
-    <row r="38" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="AC38" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO38" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD38" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR38" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ38" s="3"/>
-    </row>
-    <row r="39" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
-      <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
-      <c r="AP39" s="4"/>
-      <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="4"/>
-      <c r="AT39" s="4"/>
-      <c r="AU39" s="4"/>
-      <c r="AV39" s="4"/>
-      <c r="AW39" s="4"/>
-      <c r="AX39" s="4"/>
-      <c r="AY39" s="4"/>
-      <c r="AZ39" s="4"/>
-      <c r="BA39" s="4"/>
-      <c r="BB39" s="4"/>
-      <c r="BC39" s="4"/>
-      <c r="BD39" s="4"/>
-      <c r="BE39" s="4"/>
-      <c r="BF39" s="4"/>
-      <c r="BG39" s="4"/>
-      <c r="BH39" s="4"/>
-      <c r="BI39" s="4"/>
-      <c r="BJ39" s="4"/>
-      <c r="BK39" s="4"/>
-      <c r="BL39" s="4"/>
-      <c r="BM39" s="4"/>
-      <c r="BN39" s="4"/>
-      <c r="BO39" s="4"/>
-      <c r="BP39" s="4"/>
-      <c r="BQ39" s="4"/>
-      <c r="BR39" s="4"/>
-      <c r="BS39" s="4"/>
-      <c r="BT39" s="4"/>
-      <c r="BU39" s="4"/>
-      <c r="BV39" s="4"/>
-      <c r="BW39" s="4"/>
-      <c r="BX39" s="4"/>
-      <c r="BY39" s="4"/>
-      <c r="BZ39" s="4"/>
-      <c r="CA39" s="4"/>
-      <c r="CB39" s="4"/>
-      <c r="CC39" s="4"/>
-      <c r="CD39" s="4"/>
-      <c r="CE39" s="4"/>
-      <c r="CF39" s="4"/>
-      <c r="CG39" s="4"/>
-      <c r="CH39" s="4"/>
-      <c r="CI39" s="4"/>
-      <c r="CJ39" s="4"/>
-      <c r="CK39" s="4"/>
-      <c r="CL39" s="4"/>
-      <c r="CM39" s="4"/>
-      <c r="CN39" s="4"/>
-      <c r="CO39" s="4"/>
-      <c r="CP39" s="4"/>
-      <c r="CQ39" s="4"/>
-      <c r="CR39" s="4"/>
-      <c r="CS39" s="4"/>
-      <c r="CT39" s="4"/>
-      <c r="CU39" s="4"/>
-      <c r="CV39" s="4"/>
-      <c r="CW39" s="4"/>
-      <c r="CX39" s="4"/>
-      <c r="CY39" s="4"/>
-      <c r="CZ39" s="4"/>
-      <c r="DA39" s="4"/>
-      <c r="DB39" s="4"/>
-      <c r="DC39" s="4"/>
-      <c r="DD39" s="4"/>
-      <c r="DE39" s="4"/>
-      <c r="DF39" s="4"/>
-      <c r="DG39" s="4"/>
-      <c r="DH39" s="4"/>
-      <c r="DI39" s="4"/>
-      <c r="DJ39" s="3"/>
-    </row>
-    <row r="40" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="DJ40" s="3"/>
-    </row>
-    <row r="41" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="DJ41" s="3"/>
-    </row>
-    <row r="42" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="DJ42" s="3"/>
-    </row>
-    <row r="43" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="DJ43" s="3"/>
-    </row>
-    <row r="44" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="DJ44" s="3"/>
-    </row>
-    <row r="45" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="DJ45" s="3"/>
-    </row>
-    <row r="46" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="DA46" s="4"/>
-      <c r="DB46" s="4"/>
-      <c r="DC46" s="4"/>
-      <c r="DD46" s="4"/>
-      <c r="DE46" s="4"/>
-      <c r="DF46" s="4"/>
-      <c r="DG46" s="4"/>
-      <c r="DH46" s="4"/>
-      <c r="DI46" s="4"/>
-      <c r="DJ46" s="3"/>
-    </row>
-    <row r="47" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="DA47" s="4"/>
-      <c r="DB47" s="4"/>
-      <c r="DC47" s="4"/>
-      <c r="DD47" s="4"/>
-      <c r="DE47" s="4"/>
-      <c r="DF47" s="4"/>
-      <c r="DG47" s="4"/>
-      <c r="DH47" s="4"/>
-      <c r="DI47" s="4"/>
-      <c r="DJ47" s="3"/>
-    </row>
-    <row r="48" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="DA48" s="4"/>
-      <c r="DB48" s="4"/>
-      <c r="DC48" s="4"/>
-      <c r="DD48" s="4"/>
-      <c r="DE48" s="4"/>
-      <c r="DF48" s="4"/>
-      <c r="DG48" s="4"/>
-      <c r="DH48" s="4"/>
-      <c r="DI48" s="4"/>
-      <c r="DJ48" s="3"/>
-    </row>
-    <row r="49" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="DA49" s="4"/>
-      <c r="DB49" s="4"/>
-      <c r="DC49" s="4"/>
-      <c r="DD49" s="4"/>
-      <c r="DE49" s="4"/>
-      <c r="DF49" s="4"/>
-      <c r="DG49" s="4"/>
-      <c r="DH49" s="4"/>
-      <c r="DI49" s="4"/>
-      <c r="DJ49" s="3"/>
-    </row>
-    <row r="50" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="DA50" s="4"/>
-      <c r="DB50" s="4"/>
-      <c r="DC50" s="4"/>
-      <c r="DD50" s="4"/>
-      <c r="DE50" s="4"/>
-      <c r="DF50" s="4"/>
-      <c r="DG50" s="4"/>
-      <c r="DH50" s="4"/>
-      <c r="DI50" s="4"/>
-      <c r="DJ50" s="3"/>
-    </row>
-    <row r="51" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
-      <c r="AG51" s="4"/>
-      <c r="AH51" s="4"/>
-      <c r="AI51" s="4"/>
-      <c r="AJ51" s="4"/>
-      <c r="AK51" s="4"/>
-      <c r="AL51" s="4"/>
-      <c r="AM51" s="4"/>
-      <c r="AN51" s="4"/>
-      <c r="AO51" s="4"/>
-      <c r="AP51" s="4"/>
-      <c r="AQ51" s="4"/>
-      <c r="AR51" s="4"/>
-      <c r="AS51" s="4"/>
-      <c r="AT51" s="4"/>
-      <c r="AU51" s="4"/>
-      <c r="AV51" s="4"/>
-      <c r="AW51" s="4"/>
-      <c r="AX51" s="4"/>
-      <c r="AY51" s="4"/>
-      <c r="AZ51" s="4"/>
-      <c r="BA51" s="4"/>
-      <c r="BB51" s="4"/>
-      <c r="BC51" s="4"/>
-      <c r="BD51" s="4"/>
-      <c r="BE51" s="4"/>
-      <c r="BF51" s="4"/>
-      <c r="BG51" s="4"/>
-      <c r="BH51" s="4"/>
-      <c r="BI51" s="4"/>
-      <c r="BJ51" s="4"/>
-      <c r="BK51" s="4"/>
-      <c r="BL51" s="4"/>
-      <c r="BM51" s="4"/>
-      <c r="BN51" s="4"/>
-      <c r="BO51" s="4"/>
-      <c r="BP51" s="4"/>
-      <c r="BQ51" s="4"/>
-      <c r="BR51" s="4"/>
-      <c r="BS51" s="4"/>
-      <c r="BT51" s="4"/>
-      <c r="BU51" s="4"/>
-      <c r="BV51" s="4"/>
-      <c r="BW51" s="4"/>
-      <c r="BX51" s="4"/>
-      <c r="BY51" s="4"/>
-      <c r="BZ51" s="4"/>
-      <c r="CA51" s="4"/>
-      <c r="CB51" s="4"/>
-      <c r="CC51" s="4"/>
-      <c r="CD51" s="4"/>
-      <c r="CE51" s="4"/>
-      <c r="CF51" s="4"/>
-      <c r="CG51" s="4"/>
-      <c r="CH51" s="4"/>
-      <c r="CI51" s="4"/>
-      <c r="CJ51" s="4"/>
-      <c r="CK51" s="4"/>
-      <c r="CL51" s="4"/>
-      <c r="CM51" s="4"/>
-      <c r="CN51" s="4"/>
-      <c r="CO51" s="4"/>
-      <c r="CP51" s="4"/>
-      <c r="CQ51" s="4"/>
-      <c r="CR51" s="4"/>
-      <c r="CS51" s="4"/>
-      <c r="CT51" s="4"/>
-      <c r="CU51" s="4"/>
-      <c r="CV51" s="4"/>
-      <c r="CW51" s="4"/>
-      <c r="CX51" s="4"/>
-      <c r="CY51" s="4"/>
-      <c r="CZ51" s="4"/>
-      <c r="DA51" s="4"/>
-      <c r="DB51" s="4"/>
-      <c r="DC51" s="4"/>
-      <c r="DD51" s="4"/>
-      <c r="DE51" s="4"/>
-      <c r="DF51" s="4"/>
-      <c r="DG51" s="4"/>
-      <c r="DH51" s="4"/>
-      <c r="DI51" s="4"/>
-      <c r="DJ51" s="3"/>
-    </row>
-    <row r="52" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="BZ52">
-        <f>77-18</f>
-        <v>59</v>
-      </c>
-      <c r="CQ52">
-        <f>94-18</f>
-        <v>76</v>
-      </c>
-      <c r="DF52">
-        <f>109-18</f>
-        <v>91</v>
-      </c>
-      <c r="DJ52" s="3"/>
-    </row>
-    <row r="53" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="DJ53" s="3"/>
-    </row>
-    <row r="54" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="DJ54" s="3"/>
-    </row>
-    <row r="55" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="DJ55" s="3"/>
-    </row>
-    <row r="56" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="DJ56" s="3"/>
-    </row>
-    <row r="57" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="DJ57" s="3"/>
-    </row>
-    <row r="58" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="DJ58" s="3"/>
-    </row>
-    <row r="59" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="DJ59" s="3"/>
-    </row>
-    <row r="60" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="DJ60" s="3"/>
-    </row>
-    <row r="61" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="DJ61" s="3"/>
-    </row>
-    <row r="62" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="DJ62" s="3"/>
-    </row>
-    <row r="63" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="DJ63" s="3"/>
-    </row>
-    <row r="64" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="DJ64" s="3"/>
-    </row>
-    <row r="65" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
-      <c r="AB65" s="4"/>
-      <c r="AC65" s="4"/>
-      <c r="AD65" s="4"/>
-      <c r="AE65" s="4"/>
-      <c r="AF65" s="4"/>
-      <c r="AG65" s="4"/>
-      <c r="AH65" s="4"/>
-      <c r="AI65" s="4"/>
-      <c r="AJ65" s="4"/>
-      <c r="AK65" s="4"/>
-      <c r="AL65" s="4"/>
-      <c r="AM65" s="4"/>
-      <c r="AN65" s="4"/>
-      <c r="AO65" s="4"/>
-      <c r="AP65" s="4"/>
-      <c r="AQ65" s="4"/>
-      <c r="AR65" s="4"/>
-      <c r="AS65" s="4"/>
-      <c r="AT65" s="4"/>
-      <c r="AU65" s="4"/>
-      <c r="AV65" s="4"/>
-      <c r="AW65" s="4"/>
-      <c r="AX65" s="4"/>
-      <c r="AY65" s="4"/>
-      <c r="AZ65" s="4"/>
-      <c r="BA65" s="4"/>
-      <c r="BB65" s="4"/>
-      <c r="BC65" s="4"/>
-      <c r="BD65" s="4"/>
-      <c r="BE65" s="4"/>
-      <c r="BF65" s="4"/>
-      <c r="BG65" s="4"/>
-      <c r="BH65" s="4"/>
-      <c r="BI65" s="4"/>
-      <c r="BJ65" s="4"/>
-      <c r="BK65" s="4"/>
-      <c r="BL65" s="4"/>
-      <c r="BM65" s="4"/>
-      <c r="BN65" s="4"/>
-      <c r="BO65" s="4"/>
-      <c r="BP65" s="4"/>
-      <c r="BQ65" s="4"/>
-      <c r="BR65" s="4"/>
-      <c r="BS65" s="4"/>
-      <c r="BT65" s="4"/>
-      <c r="BU65" s="4"/>
-      <c r="BV65" s="4"/>
-      <c r="BW65" s="4"/>
-      <c r="BX65" s="4"/>
-      <c r="BY65" s="4"/>
-      <c r="BZ65" s="4"/>
-      <c r="CA65" s="4"/>
-      <c r="CB65" s="4"/>
-      <c r="CC65" s="4"/>
-      <c r="CD65" s="4"/>
-      <c r="CE65" s="4"/>
-      <c r="CF65" s="4"/>
-      <c r="CG65" s="4"/>
-      <c r="CH65" s="4"/>
-      <c r="CI65" s="4"/>
-      <c r="CJ65" s="4"/>
-      <c r="CK65" s="4"/>
-      <c r="CL65" s="4"/>
-      <c r="CM65" s="4"/>
-      <c r="CN65" s="4"/>
-      <c r="CO65" s="4"/>
-      <c r="CP65" s="4"/>
-      <c r="CQ65" s="4"/>
-      <c r="CR65" s="4"/>
-      <c r="CS65" s="4"/>
-      <c r="CT65" s="4"/>
-      <c r="CU65" s="4"/>
-      <c r="CV65" s="4"/>
-      <c r="CW65" s="4"/>
-      <c r="CX65" s="4"/>
-      <c r="CY65" s="4"/>
-      <c r="CZ65" s="4"/>
-      <c r="DA65" s="4"/>
-      <c r="DB65" s="4"/>
-      <c r="DC65" s="4"/>
-      <c r="DD65" s="4"/>
-      <c r="DE65" s="4"/>
-      <c r="DF65" s="4"/>
-      <c r="DG65" s="4"/>
-      <c r="DH65" s="4"/>
-      <c r="DI65" s="4"/>
-      <c r="DJ65" s="3"/>
-    </row>
-    <row r="66" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="DJ66" s="3"/>
-    </row>
-    <row r="67" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="DJ67" s="3"/>
-    </row>
-    <row r="68" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="S68">
-        <f>MATCH("x",S2:S50)</f>
-        <v>1</v>
-      </c>
-      <c r="T68">
-        <f t="shared" ref="T68:CE68" si="0">MATCH("x",T2:T50)</f>
-        <v>1</v>
-      </c>
-      <c r="U68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V68">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="W68">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="X68">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Y68">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="Z68">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AA68">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AB68">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="AC68">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="AD68">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="AE68">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AF68">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AG68">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AH68">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AI68">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AJ68">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AK68">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AL68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AM68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AN68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AO68">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AP68">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AQ68">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AR68">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AS68">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AT68">
-        <f>MATCH("x",AT2:AT50)</f>
-        <v>17</v>
-      </c>
-      <c r="AU68">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AV68">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="AW68">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="AX68">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="AY68">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AZ68">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="BA68">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="BB68">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="BC68">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="BD68">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="BE68">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="BF68">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="BG68">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="BH68">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="BI68">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="BJ68">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="BK68">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="BL68">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="BM68">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="BN68">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="BO68">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="BP68">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="BQ68">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="BR68">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="BS68">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="BT68">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="BU68">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="BV68">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="BW68">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="BX68">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="BY68">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="BZ68">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="CA68">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="CB68">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="CC68">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="CD68">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="CE68">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="CF68">
-        <f t="shared" ref="CF68:DF68" si="1">MATCH("x",CF2:CF50)</f>
-        <v>30</v>
-      </c>
-      <c r="CG68">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="CH68">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="CI68">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="CJ68">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="CK68">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="CL68">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="CM68">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="CN68">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="CO68">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="CP68">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="CQ68">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="CR68">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="CS68" t="e">
-        <f>MATCH("x",CS2:CS50)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CT68" t="e">
-        <f>MATCH("x",CT2:CT50)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CU68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CV68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CW68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CX68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CY68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CZ68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DA68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DB68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DC68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DD68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DE68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DF68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DJ68" s="3"/>
-    </row>
-    <row r="69" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="S69">
-        <f>S1</f>
-        <v>18</v>
-      </c>
-      <c r="T69">
-        <f t="shared" ref="T69:CE69" si="2">T1</f>
-        <v>19</v>
-      </c>
-      <c r="U69">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="V69">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="W69">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="X69">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="Y69">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="Z69">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="AA69">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="AB69">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="AC69">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="AD69">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="AE69">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="AF69">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="AG69">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="AH69">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="AI69">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="AJ69">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="AK69">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="AL69">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AM69">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="AN69">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="AO69">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="AP69">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="AQ69">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="AR69">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="AS69">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="AT69">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="AU69">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="AV69">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="AW69">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="AX69">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="AY69">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="AZ69">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="BA69">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="BB69">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="BC69">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="BD69">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="BE69">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="BF69">
-        <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="BG69">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="BH69">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="BI69">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="BJ69">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="BK69">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="BL69">
-        <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="BM69">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="BN69">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="BO69">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="BP69">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="BQ69">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="BR69">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="BS69">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="BT69">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="BU69">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="BV69">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="BW69">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="BX69">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="BY69">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="BZ69">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="CA69">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="CB69">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="CC69">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="CD69">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="CE69">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="CF69">
-        <f t="shared" ref="CF69:DF69" si="3">CF1</f>
-        <v>83</v>
-      </c>
-      <c r="CG69">
-        <f t="shared" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="CH69">
-        <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="CI69">
-        <f t="shared" si="3"/>
-        <v>86</v>
-      </c>
-      <c r="CJ69">
-        <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="CK69">
-        <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="CL69">
-        <f t="shared" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="CM69">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="CN69">
-        <f t="shared" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="CO69">
-        <f t="shared" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="CP69">
-        <f t="shared" si="3"/>
-        <v>93</v>
-      </c>
-      <c r="CQ69">
-        <f t="shared" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="CR69">
-        <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="CS69">
-        <f t="shared" si="3"/>
-        <v>96</v>
-      </c>
-      <c r="CT69">
-        <f t="shared" si="3"/>
-        <v>97</v>
-      </c>
-      <c r="CU69">
-        <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="CV69">
-        <f t="shared" si="3"/>
-        <v>99</v>
-      </c>
-      <c r="CW69">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="CX69">
-        <f t="shared" si="3"/>
-        <v>101</v>
-      </c>
-      <c r="CY69">
-        <f t="shared" si="3"/>
-        <v>102</v>
-      </c>
-      <c r="CZ69">
-        <f t="shared" si="3"/>
-        <v>103</v>
-      </c>
-      <c r="DA69">
-        <f t="shared" si="3"/>
-        <v>104</v>
-      </c>
-      <c r="DB69">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="DC69">
-        <f t="shared" si="3"/>
-        <v>106</v>
-      </c>
-      <c r="DD69">
-        <f t="shared" si="3"/>
-        <v>107</v>
-      </c>
-      <c r="DE69">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="DF69">
-        <f t="shared" si="3"/>
-        <v>109</v>
-      </c>
-      <c r="DJ69" s="3"/>
-    </row>
-    <row r="70" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="DJ70" s="3"/>
-    </row>
-    <row r="71" spans="1:114" x14ac:dyDescent="0.2">
-      <c r="S71" t="str">
-        <f>CONCATENATE(S69,", ", S68, ", ")</f>
-        <v xml:space="preserve">18, 1, </v>
-      </c>
-      <c r="T71" t="str">
-        <f t="shared" ref="T71:CE71" si="4">CONCATENATE(T69,", ", T68, ", ")</f>
-        <v xml:space="preserve">19, 1, </v>
-      </c>
-      <c r="U71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">20, 1, </v>
-      </c>
-      <c r="V71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">21, 2, </v>
-      </c>
-      <c r="W71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">22, 4, </v>
-      </c>
-      <c r="X71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">23, 7, </v>
-      </c>
-      <c r="Y71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">24, 11, </v>
-      </c>
-      <c r="Z71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">25, 16, </v>
-      </c>
-      <c r="AA71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">26, 23, </v>
-      </c>
-      <c r="AB71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">27, 30, </v>
-      </c>
-      <c r="AC71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">28, 37, </v>
-      </c>
-      <c r="AD71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">29, 30, </v>
-      </c>
-      <c r="AE71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">30, 24, </v>
-      </c>
-      <c r="AF71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">31, 17, </v>
-      </c>
-      <c r="AG71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">32, 12, </v>
-      </c>
-      <c r="AH71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">33, 8, </v>
-      </c>
-      <c r="AI71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">34, 5, </v>
-      </c>
-      <c r="AJ71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">35, 3, </v>
-      </c>
-      <c r="AK71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">36, 2, </v>
-      </c>
-      <c r="AL71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">37, 1, </v>
-      </c>
-      <c r="AM71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">38, 1, </v>
-      </c>
-      <c r="AN71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">39, 1, </v>
-      </c>
-      <c r="AO71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">40, 2, </v>
-      </c>
-      <c r="AP71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">41, 3, </v>
-      </c>
-      <c r="AQ71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">42, 5, </v>
-      </c>
-      <c r="AR71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">43, 8, </v>
-      </c>
-      <c r="AS71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">44, 12, </v>
-      </c>
-      <c r="AT71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">45, 17, </v>
-      </c>
-      <c r="AU71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">46, 24, </v>
-      </c>
-      <c r="AV71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">47, 31, </v>
-      </c>
-      <c r="AW71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">48, 37, </v>
-      </c>
-      <c r="AX71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">49, 33, </v>
-      </c>
-      <c r="AY71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">50, 28, </v>
-      </c>
-      <c r="AZ71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">51, 21, </v>
-      </c>
-      <c r="BA71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">52, 16, </v>
-      </c>
-      <c r="BB71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">53, 12, </v>
-      </c>
-      <c r="BC71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">54, 9, </v>
-      </c>
-      <c r="BD71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">55, 7, </v>
-      </c>
-      <c r="BE71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">56, 6, </v>
-      </c>
-      <c r="BF71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">57, 6, </v>
-      </c>
-      <c r="BG71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">58, 6, </v>
-      </c>
-      <c r="BH71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">59, 7, </v>
-      </c>
-      <c r="BI71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">60, 9, </v>
-      </c>
-      <c r="BJ71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">61, 12, </v>
-      </c>
-      <c r="BK71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">62, 16, </v>
-      </c>
-      <c r="BL71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">63, 21, </v>
-      </c>
-      <c r="BM71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">64, 28, </v>
-      </c>
-      <c r="BN71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">65, 34, </v>
-      </c>
-      <c r="BO71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">66, 37, </v>
-      </c>
-      <c r="BP71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">67, 32, </v>
-      </c>
-      <c r="BQ71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">68, 25, </v>
-      </c>
-      <c r="BR71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">69, 20, </v>
-      </c>
-      <c r="BS71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">70, 16, </v>
-      </c>
-      <c r="BT71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">71, 13, </v>
-      </c>
-      <c r="BU71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">72, 11, </v>
-      </c>
-      <c r="BV71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">73, 10, </v>
-      </c>
-      <c r="BW71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">74, 10, </v>
-      </c>
-      <c r="BX71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">75, 11, </v>
-      </c>
-      <c r="BY71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">76, 13, </v>
-      </c>
-      <c r="BZ71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">77, 16, </v>
-      </c>
-      <c r="CA71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">78, 20, </v>
-      </c>
-      <c r="CB71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">79, 25, </v>
-      </c>
-      <c r="CC71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">80, 32, </v>
-      </c>
-      <c r="CD71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">81, 37, </v>
-      </c>
-      <c r="CE71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">82, 34, </v>
-      </c>
-      <c r="CF71" t="str">
-        <f t="shared" ref="CF71:DF71" si="5">CONCATENATE(CF69,", ", CF68, ", ")</f>
-        <v xml:space="preserve">83, 30, </v>
-      </c>
-      <c r="CG71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">84, 26, </v>
-      </c>
-      <c r="CH71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">85, 22, </v>
-      </c>
-      <c r="CI71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">86, 19, </v>
-      </c>
-      <c r="CJ71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">87, 17, </v>
-      </c>
-      <c r="CK71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">88, 16, </v>
-      </c>
-      <c r="CL71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">89, 16, </v>
-      </c>
-      <c r="CM71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">90, 17, </v>
-      </c>
-      <c r="CN71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">91, 19, </v>
-      </c>
-      <c r="CO71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">92, 22, </v>
-      </c>
-      <c r="CP71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">93, 26, </v>
-      </c>
-      <c r="CQ71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">94, 31, </v>
-      </c>
-      <c r="CR71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">95, 37, </v>
+        <v xml:space="preserve">95, 22, </v>
       </c>
       <c r="CS71" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="CT71" t="e">
+      <c r="CT71" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CU71" t="e">
+        <v xml:space="preserve">97, 24, </v>
+      </c>
+      <c r="CU71" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CV71" t="e">
+        <v xml:space="preserve">98, 26, </v>
+      </c>
+      <c r="CV71" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CW71" t="e">
+        <v xml:space="preserve">99, 28, </v>
+      </c>
+      <c r="CW71" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CX71" t="e">
+        <v xml:space="preserve">100, 31, </v>
+      </c>
+      <c r="CX71" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CY71" t="e">
+        <v xml:space="preserve">101, 34, </v>
+      </c>
+      <c r="CY71" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v xml:space="preserve">102, 37, </v>
       </c>
       <c r="CZ71" t="e">
         <f t="shared" si="5"/>

--- a/assets/Arcs.xlsx
+++ b/assets/Arcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/Documents/GitHub/FirePanic/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3418E7-7AFE-6144-A47A-F186EB1C8D02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999A78DB-0D0D-7940-A77C-301479868032}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="6380" windowWidth="41080" windowHeight="19200" xr2:uid="{071243AF-648E-C549-A798-77CE65D73BDA}"/>
+    <workbookView xWindow="5320" yWindow="9280" windowWidth="41080" windowHeight="17800" activeTab="1" xr2:uid="{071243AF-648E-C549-A798-77CE65D73BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Angel 1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="3">
   <si>
     <t>x</t>
   </si>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9913BE02-56DD-3443-8224-496089D09AC4}">
   <dimension ref="A1:EW73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM13" sqref="AM13"/>
+    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW71" sqref="AW71:BZ71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -828,19 +828,28 @@
       <c r="AQ2" t="s">
         <v>0</v>
       </c>
-      <c r="BC2" t="s">
-        <v>2</v>
-      </c>
       <c r="BE2" t="s">
         <v>2</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>2</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" t="s">
         <v>2</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BN2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ2" t="s">
         <v>2</v>
       </c>
       <c r="DJ2" s="3"/>
@@ -882,7 +891,7 @@
       <c r="AR3" t="s">
         <v>0</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>2</v>
       </c>
       <c r="DJ3" s="3"/>
@@ -3023,74 +3032,74 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="BA68">
+      <c r="BA68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BB68">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BB68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BC68">
+      <c r="BC68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BD68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BE68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BD68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE68">
+      <c r="BF68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BG68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BH68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BF68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG68">
+      <c r="BI68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BJ68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BK68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BH68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI68">
+      <c r="BL68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BM68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BN68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BJ68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK68">
+      <c r="BO68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BP68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="BQ68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BL68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BM68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BN68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BO68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BP68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BQ68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
       <c r="BR68" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3099,9 +3108,9 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="BT68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="BT68">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="BU68" t="e">
         <f t="shared" si="0"/>
@@ -3111,9 +3120,9 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="BW68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="BW68">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="BX68" t="e">
         <f t="shared" si="0"/>
@@ -3123,9 +3132,9 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="BZ68" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="BZ68">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="CA68" t="e">
         <f t="shared" si="0"/>
@@ -3770,15 +3779,15 @@
       </c>
       <c r="BA71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">52, 2, </v>
+        <v/>
       </c>
       <c r="BB71" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">53, 2, </v>
       </c>
       <c r="BC71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">54, 1, </v>
+        <v/>
       </c>
       <c r="BD71" t="str">
         <f t="shared" si="4"/>
@@ -3794,15 +3803,15 @@
       </c>
       <c r="BG71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">58, 1, </v>
+        <v/>
       </c>
       <c r="BH71" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">59, 1, </v>
       </c>
       <c r="BI71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">60, 1, </v>
+        <v/>
       </c>
       <c r="BJ71" t="str">
         <f t="shared" si="4"/>
@@ -3822,7 +3831,7 @@
       </c>
       <c r="BN71" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">65, 1, </v>
       </c>
       <c r="BO71" t="str">
         <f t="shared" si="4"/>
@@ -3834,7 +3843,7 @@
       </c>
       <c r="BQ71" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">68, 1, </v>
       </c>
       <c r="BR71" t="str">
         <f t="shared" si="4"/>
@@ -3846,7 +3855,7 @@
       </c>
       <c r="BT71" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">71, 1, </v>
       </c>
       <c r="BU71" t="str">
         <f t="shared" si="4"/>
@@ -3858,7 +3867,7 @@
       </c>
       <c r="BW71" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">74, 1, </v>
       </c>
       <c r="BX71" t="str">
         <f t="shared" si="4"/>
@@ -3870,7 +3879,7 @@
       </c>
       <c r="BZ71" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">77, 1, </v>
       </c>
       <c r="CA71" t="str">
         <f t="shared" si="4"/>
@@ -4017,8 +4026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A86551D-AD9C-DE4C-911D-56B9AC30D816}">
   <dimension ref="A1:EW73"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="BE32" sqref="BE32"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="BH3" sqref="BH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7991,9 +8000,6 @@
       <c r="BI2" t="s">
         <v>2</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>2</v>
-      </c>
       <c r="BK2" t="s">
         <v>2</v>
       </c>
@@ -8035,9 +8041,6 @@
       </c>
       <c r="AR3" t="s">
         <v>0</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>2</v>
       </c>
       <c r="DJ3" s="3"/>
       <c r="DK3"/>
@@ -10218,17 +10221,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="BH68">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="BH68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="BI68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BJ68">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="BJ68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
       <c r="BK68">
         <f t="shared" si="0"/>
@@ -10965,7 +10968,7 @@
       </c>
       <c r="BH71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">59, 2, </v>
+        <v/>
       </c>
       <c r="BI71" t="str">
         <f t="shared" si="4"/>
@@ -10973,7 +10976,7 @@
       </c>
       <c r="BJ71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">61, 1, </v>
+        <v/>
       </c>
       <c r="BK71" t="str">
         <f t="shared" si="4"/>

--- a/assets/Arcs.xlsx
+++ b/assets/Arcs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/Documents/GitHub/FirePanic/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999A78DB-0D0D-7940-A77C-301479868032}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC5C2F6-B989-0046-A8BB-770484C917D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="9280" windowWidth="41080" windowHeight="17800" activeTab="1" xr2:uid="{071243AF-648E-C549-A798-77CE65D73BDA}"/>
+    <workbookView xWindow="840" yWindow="2940" windowWidth="14160" windowHeight="24300" activeTab="1" xr2:uid="{071243AF-648E-C549-A798-77CE65D73BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Angel 1" sheetId="4" r:id="rId1"/>
-    <sheet name="Angel 2" sheetId="5" r:id="rId2"/>
-    <sheet name="Angel 3" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Angel 2" sheetId="5" r:id="rId3"/>
+    <sheet name="Angel 3" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
@@ -37,6 +38,12 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
   </si>
 </sst>
 </file>
@@ -4023,11 +4030,1113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E315BE-B9FC-9547-BBBF-9775B80C3129}">
+  <dimension ref="D1:H61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>400</v>
+      </c>
+      <c r="E2">
+        <f>$D$2-(D2/2)</f>
+        <v>200</v>
+      </c>
+      <c r="G2">
+        <f>D2/2</f>
+        <v>200</v>
+      </c>
+      <c r="H2">
+        <f>$G$2-(G2/2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f>D2-10</f>
+        <v>390</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E61" si="0">$D$2-(D3/2)</f>
+        <v>205</v>
+      </c>
+      <c r="G3">
+        <f>G2-10</f>
+        <v>190</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H61" si="1">$G$2-(G3/2)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" ref="D4:D37" si="2">D3-10</f>
+        <v>380</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G37" si="3">G3-10</f>
+        <v>180</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>370</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>-30</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>-60</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>-70</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>-80</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>-90</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>-110</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>-120</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>-130</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>-140</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>-150</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <f t="shared" ref="D38:D61" si="4">D37-10</f>
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G61" si="5">G37-10</f>
+        <v>-160</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>-170</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>-180</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>-190</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>-200</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>-210</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>-220</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>415</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>-230</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>-40</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="5"/>
+        <v>-240</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>-50</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>-250</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>-260</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>-70</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>-270</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <f t="shared" si="4"/>
+        <v>-80</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>-280</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <f t="shared" si="4"/>
+        <v>-90</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>445</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>-290</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>-300</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <f t="shared" si="4"/>
+        <v>-110</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>-310</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <f t="shared" si="4"/>
+        <v>-120</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>-320</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <f t="shared" si="4"/>
+        <v>-130</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>-330</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <f t="shared" si="4"/>
+        <v>-140</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>470</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="5"/>
+        <v>-340</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <f t="shared" si="4"/>
+        <v>-150</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>475</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="5"/>
+        <v>-350</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <f t="shared" si="4"/>
+        <v>-160</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>-360</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <f t="shared" si="4"/>
+        <v>-170</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>485</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="5"/>
+        <v>-370</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <f t="shared" si="4"/>
+        <v>-180</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="5"/>
+        <v>-380</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <f t="shared" si="4"/>
+        <v>-190</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="5"/>
+        <v>-390</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A86551D-AD9C-DE4C-911D-56B9AC30D816}">
   <dimension ref="A1:EW73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="BH3" sqref="BH3"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2:AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4412,13 +5521,7 @@
       <c r="AN2" t="s">
         <v>0</v>
       </c>
-      <c r="AO2" t="s">
-        <v>0</v>
-      </c>
       <c r="AP2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="s">
         <v>0</v>
       </c>
       <c r="BI2" t="s">
@@ -4466,7 +5569,7 @@
       <c r="AM3" t="s">
         <v>0</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AQ3" t="s">
         <v>0</v>
       </c>
       <c r="BH3" t="s">
@@ -4503,7 +5606,7 @@
       <c r="AL4" t="s">
         <v>0</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AR4" t="s">
         <v>0</v>
       </c>
       <c r="BG4" t="s">
@@ -4571,7 +5674,7 @@
       <c r="AK6" t="s">
         <v>0</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AS6" t="s">
         <v>0</v>
       </c>
       <c r="BF6" t="s">
@@ -4636,6 +5739,9 @@
       <c r="Y8" t="s">
         <v>0</v>
       </c>
+      <c r="AT8" t="s">
+        <v>0</v>
+      </c>
       <c r="BK8" t="s">
         <v>0</v>
       </c>
@@ -4676,9 +5782,6 @@
       <c r="AJ9" t="s">
         <v>0</v>
       </c>
-      <c r="AU9" t="s">
-        <v>0</v>
-      </c>
       <c r="BE9" t="s">
         <v>2</v>
       </c>
@@ -4750,6 +5853,9 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
+      <c r="AU11" t="s">
+        <v>0</v>
+      </c>
       <c r="DJ11" s="3"/>
       <c r="DK11"/>
       <c r="DL11"/>
@@ -4820,9 +5926,6 @@
       <c r="AI13" t="s">
         <v>0</v>
       </c>
-      <c r="AV13" t="s">
-        <v>0</v>
-      </c>
       <c r="DJ13" s="3"/>
     </row>
     <row r="14" spans="1:121" x14ac:dyDescent="0.2">
@@ -4844,6 +5947,9 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
+      <c r="AV14" t="s">
+        <v>0</v>
+      </c>
       <c r="BD14" t="s">
         <v>2</v>
       </c>
@@ -7598,7 +8704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C69370-46B9-9A4F-AC95-C5780F9C0816}">
   <dimension ref="A1:EW73"/>
   <sheetViews>
@@ -11183,12 +12289,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7973D-F3C2-BE45-8008-13FED70B0209}">
   <dimension ref="A1:EW73"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="S71" sqref="S71:CY71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11573,13 +12679,7 @@
       <c r="AN2" t="s">
         <v>0</v>
       </c>
-      <c r="AO2" t="s">
-        <v>0</v>
-      </c>
       <c r="AP2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="s">
         <v>0</v>
       </c>
       <c r="BW2" s="2" t="s">
@@ -11659,7 +12759,7 @@
       <c r="AM3" t="s">
         <v>0</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AQ3" t="s">
         <v>0</v>
       </c>
       <c r="BW3" s="2"/>
@@ -11732,7 +12832,7 @@
       <c r="AL4" t="s">
         <v>0</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AR4" t="s">
         <v>0</v>
       </c>
       <c r="BW4" s="2"/>
@@ -11875,7 +12975,7 @@
       <c r="AK6" t="s">
         <v>0</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AS6" t="s">
         <v>0</v>
       </c>
       <c r="BW6" s="2"/>
@@ -12015,6 +13115,9 @@
       <c r="Y8" t="s">
         <v>0</v>
       </c>
+      <c r="AT8" t="s">
+        <v>0</v>
+      </c>
       <c r="BK8" t="s">
         <v>0</v>
       </c>
@@ -12094,9 +13197,6 @@
       <c r="AJ9" t="s">
         <v>0</v>
       </c>
-      <c r="AU9" t="s">
-        <v>0</v>
-      </c>
       <c r="BJ9" t="s">
         <v>0</v>
       </c>
@@ -12243,6 +13343,9 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
+      <c r="AU11" t="s">
+        <v>0</v>
+      </c>
       <c r="BW11" s="2"/>
       <c r="BX11" s="2"/>
       <c r="BY11" s="2"/>
@@ -12393,9 +13496,6 @@
       <c r="AI13" t="s">
         <v>0</v>
       </c>
-      <c r="AV13" t="s">
-        <v>0</v>
-      </c>
       <c r="DJ13" s="3"/>
     </row>
     <row r="14" spans="1:121" x14ac:dyDescent="0.2">
@@ -12417,6 +13517,9 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
+      <c r="AV14" t="s">
+        <v>0</v>
+      </c>
       <c r="DJ14" s="3"/>
     </row>
     <row r="15" spans="1:121" x14ac:dyDescent="0.2">
@@ -14106,37 +15209,37 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AO68">
+      <c r="AO68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AP68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AP68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="AQ68">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS68">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT68">
         <f>MATCH("x",AT2:AT50)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU68">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV68">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW68">
         <f t="shared" si="0"/>
@@ -14851,9 +15954,9 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve">39, 1, </v>
       </c>
-      <c r="AO71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">40, 1, </v>
+      <c r="AO71" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
       </c>
       <c r="AP71" t="str">
         <f t="shared" si="4"/>
@@ -14861,27 +15964,27 @@
       </c>
       <c r="AQ71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">42, 1, </v>
+        <v xml:space="preserve">42, 2, </v>
       </c>
       <c r="AR71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">43, 2, </v>
+        <v xml:space="preserve">43, 3, </v>
       </c>
       <c r="AS71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">44, 3, </v>
+        <v xml:space="preserve">44, 5, </v>
       </c>
       <c r="AT71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">45, 5, </v>
+        <v xml:space="preserve">45, 7, </v>
       </c>
       <c r="AU71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">46, 8, </v>
+        <v xml:space="preserve">46, 10, </v>
       </c>
       <c r="AV71" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">47, 12, </v>
+        <v xml:space="preserve">47, 13, </v>
       </c>
       <c r="AW71" t="str">
         <f t="shared" si="4"/>

--- a/assets/Arcs.xlsx
+++ b/assets/Arcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/Documents/GitHub/FirePanic/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC5C2F6-B989-0046-A8BB-770484C917D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADBA717-DDFD-0E4C-B8C9-3278CDEC200D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="2940" windowWidth="14160" windowHeight="24300" activeTab="1" xr2:uid="{071243AF-648E-C549-A798-77CE65D73BDA}"/>
+    <workbookView minimized="1" xWindow="840" yWindow="2940" windowWidth="14160" windowHeight="24300" activeTab="1" xr2:uid="{071243AF-648E-C549-A798-77CE65D73BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Angel 1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>Gap</t>
   </si>
 </sst>
 </file>
@@ -4031,1099 +4034,1357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E315BE-B9FC-9547-BBBF-9775B80C3129}">
-  <dimension ref="D1:H61"/>
+  <dimension ref="D1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D2">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="E2">
         <f>$D$2-(D2/2)</f>
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="G2">
         <f>D2/2</f>
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="H2">
         <f>$G$2-(G2/2)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+      <c r="K2">
+        <f>INT(($J$2-J2)/250) + 3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D3">
-        <f>D2-10</f>
-        <v>390</v>
+        <f>D2-50</f>
+        <v>1450</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E61" si="0">$D$2-(D3/2)</f>
-        <v>205</v>
+        <v>775</v>
       </c>
       <c r="G3">
-        <f>G2-10</f>
-        <v>190</v>
+        <f t="shared" ref="G3:G61" si="1">G2-50</f>
+        <v>700</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H61" si="1">$G$2-(G3/2)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H3:H61" si="2">$G$2-(G3/2)</f>
+        <v>400</v>
+      </c>
+      <c r="J3">
+        <f>J2-50</f>
+        <v>950</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K33" si="3">INT(($J$2-J3)/250) + 3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D4">
-        <f t="shared" ref="D4:D37" si="2">D3-10</f>
-        <v>380</v>
+        <f t="shared" ref="D4:D61" si="4">D3-50</f>
+        <v>1400</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>800</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G37" si="3">G3-10</f>
-        <v>180</v>
+        <f t="shared" si="1"/>
+        <v>650</v>
       </c>
       <c r="H4">
+        <f t="shared" si="2"/>
+        <v>425</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J33" si="5">J3-50</f>
+        <v>900</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="4"/>
+        <v>1350</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>825</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D5">
-        <f t="shared" si="2"/>
-        <v>370</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>215</v>
-      </c>
-      <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>850</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="3"/>
-        <v>170</v>
-      </c>
-      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D6">
-        <f t="shared" si="2"/>
-        <v>360</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="G6">
+        <v>550</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>475</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>875</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D7">
-        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>750</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>525</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>1150</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>925</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>650</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>1100</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="G7">
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>575</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>1050</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>975</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>340</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="G8">
+        <v>300</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>330</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="G9">
+        <v>250</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>625</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>950</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>320</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>650</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>450</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>310</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>245</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="G13">
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>675</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>850</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1075</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="1"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>280</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>265</v>
-      </c>
-      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>725</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>750</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1125</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>260</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="H16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>275</v>
-      </c>
-      <c r="G17">
+        <v>-50</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>775</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>650</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1175</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>-150</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>825</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1225</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-200</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>850</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="H17">
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="G18">
+        <v>-250</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>875</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="H18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1275</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>230</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="G19">
+        <v>-300</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>-50</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="H19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="1"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>290</v>
-      </c>
-      <c r="G20">
+        <v>-350</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>925</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="H20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1325</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>295</v>
-      </c>
-      <c r="G21">
+        <v>-400</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>-150</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>190</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>305</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D24">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
-        <v>-20</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>-30</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
-        <v>-40</v>
+        <v>-450</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>-50</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D28">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>330</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
-        <v>-60</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D29">
-        <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>335</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="3"/>
-        <v>-70</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D30">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="3"/>
-        <v>-80</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>345</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="3"/>
-        <v>-90</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D32">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="3"/>
-        <v>-100</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>355</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="3"/>
-        <v>-110</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="3"/>
-        <v>-120</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="3"/>
-        <v>-130</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>370</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="3"/>
-        <v>-140</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="3"/>
-        <v>-150</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="1"/>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D38">
-        <f t="shared" ref="D38:D61" si="4">D37-10</f>
-        <v>40</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>380</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ref="G38:G61" si="5">G37-10</f>
-        <v>-160</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="1"/>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D39">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="5"/>
-        <v>-170</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
-        <v>285</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D40">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="5"/>
-        <v>-180</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D41">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>395</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="5"/>
-        <v>-190</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>295</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>975</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="5"/>
         <v>-200</v>
       </c>
-      <c r="H42">
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1375</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D43">
-        <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>405</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="5"/>
-        <v>-210</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
-        <v>305</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D44">
-        <f t="shared" si="4"/>
-        <v>-20</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>410</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="5"/>
-        <v>-220</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="1"/>
-        <v>310</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D45">
-        <f t="shared" si="4"/>
-        <v>-30</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>415</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="5"/>
-        <v>-230</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="1"/>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D46">
-        <f t="shared" si="4"/>
-        <v>-40</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="5"/>
-        <v>-240</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D47">
-        <f t="shared" si="4"/>
-        <v>-50</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>425</v>
-      </c>
-      <c r="G47">
+        <v>-500</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="5"/>
         <v>-250</v>
       </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-550</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>1025</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>-300</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1425</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-600</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>-350</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1450</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-650</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>1075</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>-400</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1475</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>-700</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>-450</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-750</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>1125</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>-500</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>-50</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1525</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-800</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>1150</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>-550</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1550</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-850</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>-150</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1575</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-900</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>-200</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-950</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>-250</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1625</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <f t="shared" si="4"/>
+        <v>-300</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>-1050</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>-350</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1675</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>-1100</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>-400</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>-1150</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>-450</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1725</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>-1200</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>-500</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>-1250</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>-550</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1775</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>-1300</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>-600</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>-1350</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>-650</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1825</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>-1400</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>-700</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>-1450</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>-750</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>1875</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>-1500</v>
+      </c>
       <c r="H47">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <f t="shared" si="4"/>
+        <v>-800</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="1"/>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D48">
-        <f t="shared" si="4"/>
-        <v>-60</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>430</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="5"/>
-        <v>-260</v>
+        <v>-1550</v>
       </c>
       <c r="H48">
-        <f t="shared" si="1"/>
-        <v>330</v>
+        <f t="shared" si="2"/>
+        <v>1525</v>
       </c>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D49">
         <f t="shared" si="4"/>
-        <v>-70</v>
+        <v>-850</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>1925</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
-        <v>-270</v>
+        <f t="shared" si="1"/>
+        <v>-1600</v>
       </c>
       <c r="H49">
-        <f t="shared" si="1"/>
-        <v>335</v>
+        <f t="shared" si="2"/>
+        <v>1550</v>
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D50">
         <f t="shared" si="4"/>
-        <v>-80</v>
+        <v>-900</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>1950</v>
       </c>
       <c r="G50">
-        <f t="shared" si="5"/>
-        <v>-280</v>
+        <f t="shared" si="1"/>
+        <v>-1650</v>
       </c>
       <c r="H50">
-        <f t="shared" si="1"/>
-        <v>340</v>
+        <f t="shared" si="2"/>
+        <v>1575</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D51">
         <f t="shared" si="4"/>
-        <v>-90</v>
+        <v>-950</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>445</v>
+        <v>1975</v>
       </c>
       <c r="G51">
-        <f t="shared" si="5"/>
-        <v>-290</v>
+        <f t="shared" si="1"/>
+        <v>-1700</v>
       </c>
       <c r="H51">
-        <f t="shared" si="1"/>
-        <v>345</v>
+        <f t="shared" si="2"/>
+        <v>1600</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D52">
         <f t="shared" si="4"/>
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>2000</v>
       </c>
       <c r="G52">
-        <f t="shared" si="5"/>
-        <v>-300</v>
+        <f t="shared" si="1"/>
+        <v>-1750</v>
       </c>
       <c r="H52">
-        <f t="shared" si="1"/>
-        <v>350</v>
+        <f t="shared" si="2"/>
+        <v>1625</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D53">
         <f t="shared" si="4"/>
-        <v>-110</v>
+        <v>-1050</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>455</v>
+        <v>2025</v>
       </c>
       <c r="G53">
-        <f t="shared" si="5"/>
-        <v>-310</v>
+        <f t="shared" si="1"/>
+        <v>-1800</v>
       </c>
       <c r="H53">
-        <f t="shared" si="1"/>
-        <v>355</v>
+        <f t="shared" si="2"/>
+        <v>1650</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D54">
         <f t="shared" si="4"/>
-        <v>-120</v>
+        <v>-1100</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>2050</v>
       </c>
       <c r="G54">
-        <f t="shared" si="5"/>
-        <v>-320</v>
+        <f t="shared" si="1"/>
+        <v>-1850</v>
       </c>
       <c r="H54">
-        <f t="shared" si="1"/>
-        <v>360</v>
+        <f t="shared" si="2"/>
+        <v>1675</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D55">
         <f t="shared" si="4"/>
-        <v>-130</v>
+        <v>-1150</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>465</v>
+        <v>2075</v>
       </c>
       <c r="G55">
-        <f t="shared" si="5"/>
-        <v>-330</v>
+        <f t="shared" si="1"/>
+        <v>-1900</v>
       </c>
       <c r="H55">
-        <f t="shared" si="1"/>
-        <v>365</v>
+        <f t="shared" si="2"/>
+        <v>1700</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D56">
         <f t="shared" si="4"/>
-        <v>-140</v>
+        <v>-1200</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>470</v>
+        <v>2100</v>
       </c>
       <c r="G56">
-        <f t="shared" si="5"/>
-        <v>-340</v>
+        <f t="shared" si="1"/>
+        <v>-1950</v>
       </c>
       <c r="H56">
-        <f t="shared" si="1"/>
-        <v>370</v>
+        <f t="shared" si="2"/>
+        <v>1725</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D57">
         <f t="shared" si="4"/>
-        <v>-150</v>
+        <v>-1250</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>2125</v>
       </c>
       <c r="G57">
-        <f t="shared" si="5"/>
-        <v>-350</v>
+        <f t="shared" si="1"/>
+        <v>-2000</v>
       </c>
       <c r="H57">
-        <f t="shared" si="1"/>
-        <v>375</v>
+        <f t="shared" si="2"/>
+        <v>1750</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D58">
         <f t="shared" si="4"/>
-        <v>-160</v>
+        <v>-1300</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>2150</v>
       </c>
       <c r="G58">
-        <f t="shared" si="5"/>
-        <v>-360</v>
+        <f t="shared" si="1"/>
+        <v>-2050</v>
       </c>
       <c r="H58">
-        <f t="shared" si="1"/>
-        <v>380</v>
+        <f t="shared" si="2"/>
+        <v>1775</v>
       </c>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D59">
         <f t="shared" si="4"/>
-        <v>-170</v>
+        <v>-1350</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>485</v>
+        <v>2175</v>
       </c>
       <c r="G59">
-        <f t="shared" si="5"/>
-        <v>-370</v>
+        <f t="shared" si="1"/>
+        <v>-2100</v>
       </c>
       <c r="H59">
-        <f t="shared" si="1"/>
-        <v>385</v>
+        <f t="shared" si="2"/>
+        <v>1800</v>
       </c>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D60">
         <f t="shared" si="4"/>
-        <v>-180</v>
+        <v>-1400</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>2200</v>
       </c>
       <c r="G60">
-        <f t="shared" si="5"/>
-        <v>-380</v>
+        <f t="shared" si="1"/>
+        <v>-2150</v>
       </c>
       <c r="H60">
-        <f t="shared" si="1"/>
-        <v>390</v>
+        <f t="shared" si="2"/>
+        <v>1825</v>
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D61">
         <f t="shared" si="4"/>
-        <v>-190</v>
+        <v>-1450</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>495</v>
+        <v>2225</v>
       </c>
       <c r="G61">
-        <f t="shared" si="5"/>
-        <v>-390</v>
+        <f t="shared" si="1"/>
+        <v>-2200</v>
       </c>
       <c r="H61">
-        <f t="shared" si="1"/>
-        <v>395</v>
+        <f t="shared" si="2"/>
+        <v>1850</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Arcs.xlsx
+++ b/assets/Arcs.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/Documents/GitHub/FirePanic/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADBA717-DDFD-0E4C-B8C9-3278CDEC200D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5AEEAB-C99B-294A-BF66-AEBD70371415}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="840" yWindow="2940" windowWidth="14160" windowHeight="24300" activeTab="1" xr2:uid="{071243AF-648E-C549-A798-77CE65D73BDA}"/>
+    <workbookView xWindow="1160" yWindow="1640" windowWidth="32220" windowHeight="25160" activeTab="6" xr2:uid="{071243AF-648E-C549-A798-77CE65D73BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Angel 1" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
     <sheet name="Angel 2" sheetId="5" r:id="rId3"/>
     <sheet name="Angel 3" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId5"/>
+    <sheet name="Arc 1" sheetId="3" r:id="rId5"/>
+    <sheet name="Arc 3" sheetId="9" r:id="rId6"/>
+    <sheet name="Arc 2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -443,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9913BE02-56DD-3443-8224-496089D09AC4}">
   <dimension ref="A1:EW73"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AW71" sqref="AW71:BZ71"/>
     </sheetView>
   </sheetViews>
@@ -4036,7 +4038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E315BE-B9FC-9547-BBBF-9775B80C3129}">
   <dimension ref="D1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -12555,7 +12557,7 @@
   <dimension ref="A1:EW73"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="S71" sqref="S71:CY71"/>
+      <selection activeCell="S2" sqref="S2:AC38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16506,4 +16508,7922 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD9AF0C-8F30-A442-ACF5-8052E55DEE70}">
+  <dimension ref="A1:EW73"/>
+  <sheetViews>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="BR10" sqref="BR10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="19" max="19" width="3.1640625" customWidth="1"/>
+    <col min="114" max="153" width="3.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+      <c r="CC1">
+        <v>80</v>
+      </c>
+      <c r="CD1">
+        <v>81</v>
+      </c>
+      <c r="CE1">
+        <v>82</v>
+      </c>
+      <c r="CF1">
+        <v>83</v>
+      </c>
+      <c r="CG1">
+        <v>84</v>
+      </c>
+      <c r="CH1">
+        <v>85</v>
+      </c>
+      <c r="CI1">
+        <v>86</v>
+      </c>
+      <c r="CJ1">
+        <v>87</v>
+      </c>
+      <c r="CK1">
+        <v>88</v>
+      </c>
+      <c r="CL1">
+        <v>89</v>
+      </c>
+      <c r="CM1">
+        <v>90</v>
+      </c>
+      <c r="CN1">
+        <v>91</v>
+      </c>
+      <c r="CO1">
+        <v>92</v>
+      </c>
+      <c r="CP1">
+        <v>93</v>
+      </c>
+      <c r="CQ1">
+        <v>94</v>
+      </c>
+      <c r="CR1">
+        <v>95</v>
+      </c>
+      <c r="CS1">
+        <v>96</v>
+      </c>
+      <c r="CT1">
+        <v>97</v>
+      </c>
+      <c r="CU1">
+        <v>98</v>
+      </c>
+      <c r="CV1">
+        <v>99</v>
+      </c>
+      <c r="CW1">
+        <v>100</v>
+      </c>
+      <c r="CX1">
+        <v>101</v>
+      </c>
+      <c r="CY1">
+        <v>102</v>
+      </c>
+      <c r="CZ1">
+        <v>103</v>
+      </c>
+      <c r="DA1">
+        <v>104</v>
+      </c>
+      <c r="DB1">
+        <v>105</v>
+      </c>
+      <c r="DC1">
+        <v>106</v>
+      </c>
+      <c r="DD1">
+        <v>107</v>
+      </c>
+      <c r="DE1">
+        <v>108</v>
+      </c>
+      <c r="DF1">
+        <v>109</v>
+      </c>
+      <c r="DG1">
+        <v>110</v>
+      </c>
+      <c r="DH1">
+        <v>111</v>
+      </c>
+      <c r="DI1">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="3"/>
+    </row>
+    <row r="2" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="2"/>
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="2"/>
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CF2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="2"/>
+      <c r="CM2" s="2"/>
+      <c r="CN2" s="2"/>
+      <c r="CO2" s="2"/>
+      <c r="CP2" s="2"/>
+      <c r="CQ2" s="2"/>
+      <c r="CR2" s="2"/>
+      <c r="CS2" s="2"/>
+      <c r="CT2" s="2"/>
+      <c r="CU2" s="2"/>
+      <c r="CV2" s="2"/>
+      <c r="CW2" s="2"/>
+      <c r="CX2" s="2"/>
+      <c r="CY2" s="2"/>
+      <c r="CZ2" s="2"/>
+      <c r="DA2" s="2"/>
+      <c r="DB2" s="2"/>
+      <c r="DC2" s="2"/>
+      <c r="DD2" s="2"/>
+      <c r="DE2" s="6"/>
+      <c r="DF2" s="6"/>
+      <c r="DG2" s="6"/>
+      <c r="DH2" s="6"/>
+      <c r="DI2" s="6"/>
+      <c r="DJ2" s="3"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="W3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CA3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CF3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CH3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="2"/>
+      <c r="CL3" s="2"/>
+      <c r="CM3" s="2"/>
+      <c r="CN3" s="2"/>
+      <c r="CO3" s="2"/>
+      <c r="CP3" s="2"/>
+      <c r="CQ3" s="2"/>
+      <c r="CR3" s="2"/>
+      <c r="CS3" s="2"/>
+      <c r="CT3" s="2"/>
+      <c r="CU3" s="2"/>
+      <c r="CV3" s="2"/>
+      <c r="CW3" s="2"/>
+      <c r="CX3" s="2"/>
+      <c r="CY3" s="2"/>
+      <c r="CZ3" s="2"/>
+      <c r="DA3" s="2"/>
+      <c r="DB3" s="2"/>
+      <c r="DC3" s="2"/>
+      <c r="DD3" s="2"/>
+      <c r="DE3" s="6"/>
+      <c r="DF3" s="6"/>
+      <c r="DG3" s="6"/>
+      <c r="DH3" s="6"/>
+      <c r="DI3" s="6"/>
+      <c r="DJ3" s="3"/>
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+    </row>
+    <row r="4" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="AL4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
+      <c r="CS4" s="2"/>
+      <c r="CT4" s="2"/>
+      <c r="CU4" s="2"/>
+      <c r="CV4" s="2"/>
+      <c r="CW4" s="2"/>
+      <c r="CX4" s="2"/>
+      <c r="CY4" s="2"/>
+      <c r="CZ4" s="2"/>
+      <c r="DA4" s="2"/>
+      <c r="DB4" s="2"/>
+      <c r="DC4" s="2"/>
+      <c r="DD4" s="2"/>
+      <c r="DE4" s="6"/>
+      <c r="DF4" s="6"/>
+      <c r="DG4" s="6"/>
+      <c r="DH4" s="6"/>
+      <c r="DI4" s="6"/>
+      <c r="DJ4" s="3"/>
+      <c r="DK4"/>
+      <c r="DL4"/>
+      <c r="DM4"/>
+      <c r="DN4"/>
+      <c r="DO4"/>
+      <c r="DP4"/>
+      <c r="DQ4"/>
+    </row>
+    <row r="5" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="X5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="2"/>
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="2"/>
+      <c r="CI5" s="2"/>
+      <c r="CJ5" s="2"/>
+      <c r="CK5" s="2"/>
+      <c r="CL5" s="2"/>
+      <c r="CM5" s="2"/>
+      <c r="CN5" s="2"/>
+      <c r="CO5" s="2"/>
+      <c r="CP5" s="2"/>
+      <c r="CQ5" s="2"/>
+      <c r="CR5" s="2"/>
+      <c r="CS5" s="2"/>
+      <c r="CT5" s="2"/>
+      <c r="CU5" s="2"/>
+      <c r="CV5" s="2"/>
+      <c r="CW5" s="2"/>
+      <c r="CX5" s="2"/>
+      <c r="CY5" s="2"/>
+      <c r="CZ5" s="2"/>
+      <c r="DA5" s="2"/>
+      <c r="DB5" s="2"/>
+      <c r="DC5" s="2"/>
+      <c r="DD5" s="2"/>
+      <c r="DE5" s="6"/>
+      <c r="DF5" s="6"/>
+      <c r="DG5" s="6"/>
+      <c r="DH5" s="6"/>
+      <c r="DI5" s="6"/>
+      <c r="DJ5" s="3"/>
+      <c r="DK5"/>
+      <c r="DL5"/>
+      <c r="DM5"/>
+      <c r="DN5"/>
+      <c r="DO5"/>
+      <c r="DP5"/>
+      <c r="DQ5"/>
+    </row>
+    <row r="6" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="AK6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="2"/>
+      <c r="BY6" s="2"/>
+      <c r="BZ6" s="2"/>
+      <c r="CA6" s="2"/>
+      <c r="CB6" s="2"/>
+      <c r="CC6" s="2"/>
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="2"/>
+      <c r="CF6" s="2"/>
+      <c r="CG6" s="2"/>
+      <c r="CH6" s="2"/>
+      <c r="CI6" s="2"/>
+      <c r="CJ6" s="2"/>
+      <c r="CK6" s="2"/>
+      <c r="CL6" s="2"/>
+      <c r="CM6" s="2"/>
+      <c r="CN6" s="2"/>
+      <c r="CO6" s="2"/>
+      <c r="CP6" s="2"/>
+      <c r="CQ6" s="2"/>
+      <c r="CR6" s="2"/>
+      <c r="CS6" s="2"/>
+      <c r="CT6" s="2"/>
+      <c r="CU6" s="2"/>
+      <c r="CV6" s="2"/>
+      <c r="CW6" s="2"/>
+      <c r="CX6" s="2"/>
+      <c r="CY6" s="2"/>
+      <c r="CZ6" s="2"/>
+      <c r="DA6" s="2"/>
+      <c r="DB6" s="2"/>
+      <c r="DC6" s="2"/>
+      <c r="DD6" s="2"/>
+      <c r="DE6" s="6"/>
+      <c r="DF6" s="6"/>
+      <c r="DG6" s="6"/>
+      <c r="DH6" s="6"/>
+      <c r="DI6" s="6"/>
+      <c r="DJ6" s="3"/>
+      <c r="DK6"/>
+      <c r="DL6"/>
+      <c r="DM6"/>
+      <c r="DN6"/>
+      <c r="DO6"/>
+      <c r="DP6"/>
+      <c r="DQ6"/>
+    </row>
+    <row r="7" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="BW7" s="2"/>
+      <c r="BX7" s="2"/>
+      <c r="BY7" s="2"/>
+      <c r="BZ7" s="2"/>
+      <c r="CA7" s="2"/>
+      <c r="CB7" s="2"/>
+      <c r="CC7" s="2"/>
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="2"/>
+      <c r="CF7" s="2"/>
+      <c r="CG7" s="2"/>
+      <c r="CH7" s="2"/>
+      <c r="CI7" s="2"/>
+      <c r="CJ7" s="2"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7" s="2"/>
+      <c r="CM7" s="2"/>
+      <c r="CN7" s="2"/>
+      <c r="CO7" s="2"/>
+      <c r="CP7" s="2"/>
+      <c r="CQ7" s="2"/>
+      <c r="CR7" s="2"/>
+      <c r="CS7" s="2"/>
+      <c r="CT7" s="2"/>
+      <c r="CU7" s="2"/>
+      <c r="CV7" s="2"/>
+      <c r="CW7" s="2"/>
+      <c r="CX7" s="2"/>
+      <c r="CY7" s="2"/>
+      <c r="CZ7" s="2"/>
+      <c r="DA7" s="2"/>
+      <c r="DB7" s="2"/>
+      <c r="DC7" s="2"/>
+      <c r="DD7" s="2"/>
+      <c r="DE7" s="6"/>
+      <c r="DF7" s="6"/>
+      <c r="DG7" s="6"/>
+      <c r="DH7" s="6"/>
+      <c r="DI7" s="6"/>
+      <c r="DJ7" s="3"/>
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+    </row>
+    <row r="8" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="Y8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="2"/>
+      <c r="BX8" s="2"/>
+      <c r="BY8" s="2"/>
+      <c r="BZ8" s="2"/>
+      <c r="CA8" s="2"/>
+      <c r="CB8" s="2"/>
+      <c r="CC8" s="2"/>
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="2"/>
+      <c r="CF8" s="2"/>
+      <c r="CG8" s="2"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8" s="2"/>
+      <c r="CJ8" s="2"/>
+      <c r="CK8" s="2"/>
+      <c r="CL8" s="2"/>
+      <c r="CM8" s="2"/>
+      <c r="CN8" s="2"/>
+      <c r="CO8" s="2"/>
+      <c r="CP8" s="2"/>
+      <c r="CQ8" s="2"/>
+      <c r="CR8" s="2"/>
+      <c r="CS8" s="2"/>
+      <c r="CT8" s="2"/>
+      <c r="CU8" s="2"/>
+      <c r="CV8" s="2"/>
+      <c r="CW8" s="2"/>
+      <c r="CX8" s="2"/>
+      <c r="CY8" s="2"/>
+      <c r="CZ8" s="2"/>
+      <c r="DA8" s="2"/>
+      <c r="DB8" s="2"/>
+      <c r="DC8" s="2"/>
+      <c r="DD8" s="2"/>
+      <c r="DE8" s="6"/>
+      <c r="DF8" s="6"/>
+      <c r="DG8" s="6"/>
+      <c r="DH8" s="6"/>
+      <c r="DI8" s="6"/>
+      <c r="DJ8" s="3"/>
+      <c r="DK8"/>
+      <c r="DL8"/>
+      <c r="DM8"/>
+      <c r="DN8"/>
+      <c r="DO8"/>
+      <c r="DP8"/>
+      <c r="DQ8"/>
+    </row>
+    <row r="9" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="AJ9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="2"/>
+      <c r="BX9" s="2"/>
+      <c r="BY9" s="2"/>
+      <c r="BZ9" s="2"/>
+      <c r="CA9" s="2"/>
+      <c r="CB9" s="2"/>
+      <c r="CC9" s="2"/>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="2"/>
+      <c r="CF9" s="2"/>
+      <c r="CG9" s="2"/>
+      <c r="CH9" s="2"/>
+      <c r="CI9" s="2"/>
+      <c r="CJ9" s="2"/>
+      <c r="CK9" s="2"/>
+      <c r="CL9" s="2"/>
+      <c r="CM9" s="2"/>
+      <c r="CN9" s="2"/>
+      <c r="CO9" s="2"/>
+      <c r="CP9" s="2"/>
+      <c r="CQ9" s="2"/>
+      <c r="CR9" s="2"/>
+      <c r="CS9" s="2"/>
+      <c r="CT9" s="2"/>
+      <c r="CU9" s="2"/>
+      <c r="CV9" s="2"/>
+      <c r="CW9" s="2"/>
+      <c r="CX9" s="2"/>
+      <c r="CY9" s="2"/>
+      <c r="CZ9" s="2"/>
+      <c r="DA9" s="2"/>
+      <c r="DB9" s="2"/>
+      <c r="DC9" s="2"/>
+      <c r="DD9" s="2"/>
+      <c r="DE9" s="6"/>
+      <c r="DF9" s="6"/>
+      <c r="DG9" s="6"/>
+      <c r="DH9" s="6"/>
+      <c r="DI9" s="6"/>
+      <c r="DJ9" s="3"/>
+      <c r="DK9"/>
+      <c r="DL9"/>
+      <c r="DM9"/>
+      <c r="DN9"/>
+      <c r="DO9"/>
+      <c r="DP9"/>
+      <c r="DQ9"/>
+    </row>
+    <row r="10" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="BI10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="2"/>
+      <c r="BX10" s="2"/>
+      <c r="BY10" s="2"/>
+      <c r="BZ10" s="2"/>
+      <c r="CA10" s="2"/>
+      <c r="CB10" s="2"/>
+      <c r="CC10" s="2"/>
+      <c r="CD10" s="2"/>
+      <c r="CE10" s="2"/>
+      <c r="CF10" s="2"/>
+      <c r="CG10" s="2"/>
+      <c r="CH10" s="2"/>
+      <c r="CI10" s="2"/>
+      <c r="CJ10" s="2"/>
+      <c r="CK10" s="2"/>
+      <c r="CL10" s="2"/>
+      <c r="CM10" s="2"/>
+      <c r="CN10" s="2"/>
+      <c r="CO10" s="2"/>
+      <c r="CP10" s="2"/>
+      <c r="CQ10" s="2"/>
+      <c r="CR10" s="2"/>
+      <c r="CS10" s="2"/>
+      <c r="CT10" s="2"/>
+      <c r="CU10" s="2"/>
+      <c r="CV10" s="2"/>
+      <c r="CW10" s="2"/>
+      <c r="CX10" s="2"/>
+      <c r="CY10" s="2"/>
+      <c r="CZ10" s="2"/>
+      <c r="DA10" s="2"/>
+      <c r="DB10" s="2"/>
+      <c r="DC10" s="2"/>
+      <c r="DD10" s="2"/>
+      <c r="DE10" s="6"/>
+      <c r="DF10" s="6"/>
+      <c r="DG10" s="6"/>
+      <c r="DH10" s="6"/>
+      <c r="DI10" s="6"/>
+      <c r="DJ10" s="3"/>
+      <c r="DK10"/>
+      <c r="DL10"/>
+      <c r="DM10"/>
+      <c r="DN10"/>
+      <c r="DO10"/>
+      <c r="DP10"/>
+      <c r="DQ10"/>
+    </row>
+    <row r="11" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="AU11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="2"/>
+      <c r="BX11" s="2"/>
+      <c r="BY11" s="2"/>
+      <c r="BZ11" s="2"/>
+      <c r="CA11" s="2"/>
+      <c r="CB11" s="2"/>
+      <c r="CC11" s="2"/>
+      <c r="CD11" s="2"/>
+      <c r="CE11" s="2"/>
+      <c r="CF11" s="2"/>
+      <c r="CG11" s="2"/>
+      <c r="CH11" s="2"/>
+      <c r="CI11" s="2"/>
+      <c r="CJ11" s="2"/>
+      <c r="CK11" s="2"/>
+      <c r="CL11" s="2"/>
+      <c r="CM11" s="2"/>
+      <c r="CN11" s="2"/>
+      <c r="CO11" s="2"/>
+      <c r="CP11" s="2"/>
+      <c r="CQ11" s="2"/>
+      <c r="CR11" s="2"/>
+      <c r="CS11" s="2"/>
+      <c r="CT11" s="2"/>
+      <c r="CU11" s="2"/>
+      <c r="CV11" s="2"/>
+      <c r="CW11" s="2"/>
+      <c r="CX11" s="2"/>
+      <c r="CY11" s="2"/>
+      <c r="CZ11" s="2"/>
+      <c r="DA11" s="2"/>
+      <c r="DB11" s="2"/>
+      <c r="DC11" s="2"/>
+      <c r="DD11" s="2"/>
+      <c r="DE11" s="6"/>
+      <c r="DF11" s="6"/>
+      <c r="DG11" s="6"/>
+      <c r="DH11" s="6"/>
+      <c r="DI11" s="6"/>
+      <c r="DJ11" s="3"/>
+      <c r="DK11"/>
+      <c r="DL11"/>
+      <c r="DM11"/>
+      <c r="DN11"/>
+      <c r="DO11"/>
+      <c r="DP11"/>
+      <c r="DQ11"/>
+    </row>
+    <row r="12" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="Z12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX12" s="2"/>
+      <c r="BY12" s="2"/>
+      <c r="BZ12" s="2"/>
+      <c r="CA12" s="2"/>
+      <c r="CB12" s="2"/>
+      <c r="CC12" s="2"/>
+      <c r="CD12" s="2"/>
+      <c r="CE12" s="2"/>
+      <c r="CF12" s="2"/>
+      <c r="CG12" s="2"/>
+      <c r="CH12" s="2"/>
+      <c r="CI12" s="2"/>
+      <c r="CJ12" s="2"/>
+      <c r="CK12" s="2"/>
+      <c r="CL12" s="2"/>
+      <c r="CM12" s="2"/>
+      <c r="CN12" s="2"/>
+      <c r="CO12" s="2"/>
+      <c r="CP12" s="2"/>
+      <c r="CQ12" s="2"/>
+      <c r="CR12" s="2"/>
+      <c r="CS12" s="2"/>
+      <c r="CT12" s="2"/>
+      <c r="CU12" s="2"/>
+      <c r="CV12" s="2"/>
+      <c r="CW12" s="2"/>
+      <c r="CX12" s="2"/>
+      <c r="CY12" s="2"/>
+      <c r="CZ12" s="2"/>
+      <c r="DA12" s="2"/>
+      <c r="DB12" s="2"/>
+      <c r="DC12" s="2"/>
+      <c r="DD12" s="2"/>
+      <c r="DE12" s="6"/>
+      <c r="DF12" s="6"/>
+      <c r="DG12" s="6"/>
+      <c r="DH12" s="6"/>
+      <c r="DI12" s="6"/>
+      <c r="DJ12" s="3"/>
+      <c r="DK12"/>
+      <c r="DL12"/>
+      <c r="DM12"/>
+      <c r="DN12"/>
+      <c r="DO12"/>
+      <c r="DP12"/>
+      <c r="DQ12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="AI13" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ13" s="3"/>
+    </row>
+    <row r="14" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="AV14" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ14" s="3"/>
+    </row>
+    <row r="15" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="BG15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ15" s="3"/>
+    </row>
+    <row r="16" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="DJ16" s="3"/>
+    </row>
+    <row r="17" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="AA17" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ17" s="3"/>
+    </row>
+    <row r="18" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="AH18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ18" s="3"/>
+    </row>
+    <row r="19" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="BF19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ19" s="3"/>
+    </row>
+    <row r="20" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="DJ20" s="3"/>
+    </row>
+    <row r="21" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="CH21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ21" s="3"/>
+    </row>
+    <row r="22" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="CF22" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ22" s="3"/>
+    </row>
+    <row r="23" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="AG23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ23" s="3"/>
+    </row>
+    <row r="24" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="AB24" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ24" s="3"/>
+    </row>
+    <row r="25" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="CB25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT25" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ25" s="3"/>
+    </row>
+    <row r="26" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="DJ26" s="3"/>
+    </row>
+    <row r="27" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="BD27" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU27" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ27" s="3"/>
+    </row>
+    <row r="28" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="AF28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ28" s="3"/>
+    </row>
+    <row r="29" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="BZ29" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV29" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ29" s="3"/>
+    </row>
+    <row r="30" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="DJ30" s="3"/>
+    </row>
+    <row r="31" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="AC31" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ31" s="3"/>
+    </row>
+    <row r="32" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="BY32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ32" s="3"/>
+    </row>
+    <row r="33" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="AE33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="DJ33" s="3"/>
+    </row>
+    <row r="34" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="AZ34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ34" s="3"/>
+    </row>
+    <row r="35" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="BX35" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX35" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ35" s="3"/>
+    </row>
+    <row r="36" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="DJ36" s="3"/>
+    </row>
+    <row r="37" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="DJ37" s="3"/>
+    </row>
+    <row r="38" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="AD38" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>0</v>
+      </c>
+      <c r="CY38" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ38" s="3"/>
+    </row>
+    <row r="39" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4"/>
+      <c r="AU39" s="4"/>
+      <c r="AV39" s="4"/>
+      <c r="AW39" s="4"/>
+      <c r="AX39" s="4"/>
+      <c r="AY39" s="4"/>
+      <c r="AZ39" s="4"/>
+      <c r="BA39" s="4"/>
+      <c r="BB39" s="4"/>
+      <c r="BC39" s="4"/>
+      <c r="BD39" s="4"/>
+      <c r="BE39" s="4"/>
+      <c r="BF39" s="4"/>
+      <c r="BG39" s="4"/>
+      <c r="BH39" s="4"/>
+      <c r="BI39" s="4"/>
+      <c r="BJ39" s="4"/>
+      <c r="BK39" s="4"/>
+      <c r="BL39" s="4"/>
+      <c r="BM39" s="4"/>
+      <c r="BN39" s="4"/>
+      <c r="BO39" s="4"/>
+      <c r="BP39" s="4"/>
+      <c r="BQ39" s="4"/>
+      <c r="BR39" s="4"/>
+      <c r="BS39" s="4"/>
+      <c r="BT39" s="4"/>
+      <c r="BU39" s="4"/>
+      <c r="BV39" s="4"/>
+      <c r="BW39" s="4"/>
+      <c r="BX39" s="4"/>
+      <c r="BY39" s="4"/>
+      <c r="BZ39" s="4"/>
+      <c r="CA39" s="4"/>
+      <c r="CB39" s="4"/>
+      <c r="CC39" s="4"/>
+      <c r="CD39" s="4"/>
+      <c r="CE39" s="4"/>
+      <c r="CF39" s="4"/>
+      <c r="CG39" s="4"/>
+      <c r="CH39" s="4"/>
+      <c r="CI39" s="4"/>
+      <c r="CJ39" s="4"/>
+      <c r="CK39" s="4"/>
+      <c r="CL39" s="4"/>
+      <c r="CM39" s="4"/>
+      <c r="CN39" s="4"/>
+      <c r="CO39" s="4"/>
+      <c r="CP39" s="4"/>
+      <c r="CQ39" s="4"/>
+      <c r="CR39" s="4"/>
+      <c r="CS39" s="4"/>
+      <c r="CT39" s="4"/>
+      <c r="CU39" s="4"/>
+      <c r="CV39" s="4"/>
+      <c r="CW39" s="4"/>
+      <c r="CX39" s="4"/>
+      <c r="CY39" s="4"/>
+      <c r="CZ39" s="4"/>
+      <c r="DA39" s="4"/>
+      <c r="DB39" s="4"/>
+      <c r="DC39" s="4"/>
+      <c r="DD39" s="4"/>
+      <c r="DE39" s="4"/>
+      <c r="DF39" s="4"/>
+      <c r="DG39" s="4"/>
+      <c r="DH39" s="4"/>
+      <c r="DI39" s="4"/>
+      <c r="DJ39" s="3"/>
+    </row>
+    <row r="40" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="AM40" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ40" s="3"/>
+    </row>
+    <row r="41" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="DJ41" s="3"/>
+    </row>
+    <row r="42" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="DJ42" s="3"/>
+    </row>
+    <row r="43" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="DJ43" s="3"/>
+    </row>
+    <row r="44" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="DJ44" s="3"/>
+    </row>
+    <row r="45" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="DJ45" s="3"/>
+    </row>
+    <row r="46" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="DA46" s="4"/>
+      <c r="DB46" s="4"/>
+      <c r="DC46" s="4"/>
+      <c r="DD46" s="4"/>
+      <c r="DE46" s="4"/>
+      <c r="DF46" s="4"/>
+      <c r="DG46" s="4"/>
+      <c r="DH46" s="4"/>
+      <c r="DI46" s="4"/>
+      <c r="DJ46" s="3"/>
+    </row>
+    <row r="47" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="DA47" s="4"/>
+      <c r="DB47" s="4"/>
+      <c r="DC47" s="4"/>
+      <c r="DD47" s="4"/>
+      <c r="DE47" s="4"/>
+      <c r="DF47" s="4"/>
+      <c r="DG47" s="4"/>
+      <c r="DH47" s="4"/>
+      <c r="DI47" s="4"/>
+      <c r="DJ47" s="3"/>
+    </row>
+    <row r="48" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="DA48" s="4"/>
+      <c r="DB48" s="4"/>
+      <c r="DC48" s="4"/>
+      <c r="DD48" s="4"/>
+      <c r="DE48" s="4"/>
+      <c r="DF48" s="4"/>
+      <c r="DG48" s="4"/>
+      <c r="DH48" s="4"/>
+      <c r="DI48" s="4"/>
+      <c r="DJ48" s="3"/>
+    </row>
+    <row r="49" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="DA49" s="4"/>
+      <c r="DB49" s="4"/>
+      <c r="DC49" s="4"/>
+      <c r="DD49" s="4"/>
+      <c r="DE49" s="4"/>
+      <c r="DF49" s="4"/>
+      <c r="DG49" s="4"/>
+      <c r="DH49" s="4"/>
+      <c r="DI49" s="4"/>
+      <c r="DJ49" s="3"/>
+    </row>
+    <row r="50" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="AM50" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA50" s="4"/>
+      <c r="DB50" s="4"/>
+      <c r="DC50" s="4"/>
+      <c r="DD50" s="4"/>
+      <c r="DE50" s="4"/>
+      <c r="DF50" s="4"/>
+      <c r="DG50" s="4"/>
+      <c r="DH50" s="4"/>
+      <c r="DI50" s="4"/>
+      <c r="DJ50" s="3"/>
+    </row>
+    <row r="51" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
+      <c r="AO51" s="4"/>
+      <c r="AP51" s="4"/>
+      <c r="AQ51" s="4"/>
+      <c r="AR51" s="4"/>
+      <c r="AS51" s="4"/>
+      <c r="AT51" s="4"/>
+      <c r="AU51" s="4"/>
+      <c r="AV51" s="4"/>
+      <c r="AW51" s="4"/>
+      <c r="AX51" s="4"/>
+      <c r="AY51" s="4"/>
+      <c r="AZ51" s="4"/>
+      <c r="BA51" s="4"/>
+      <c r="BB51" s="4"/>
+      <c r="BC51" s="4"/>
+      <c r="BD51" s="4"/>
+      <c r="BE51" s="4"/>
+      <c r="BF51" s="4"/>
+      <c r="BG51" s="4"/>
+      <c r="BH51" s="4"/>
+      <c r="BI51" s="4"/>
+      <c r="BJ51" s="4"/>
+      <c r="BK51" s="4"/>
+      <c r="BL51" s="4"/>
+      <c r="BM51" s="4"/>
+      <c r="BN51" s="4"/>
+      <c r="BO51" s="4"/>
+      <c r="BP51" s="4"/>
+      <c r="BQ51" s="4"/>
+      <c r="BR51" s="4"/>
+      <c r="BS51" s="4"/>
+      <c r="BT51" s="4"/>
+      <c r="BU51" s="4"/>
+      <c r="BV51" s="4"/>
+      <c r="BW51" s="4"/>
+      <c r="BX51" s="4"/>
+      <c r="BY51" s="4"/>
+      <c r="BZ51" s="4"/>
+      <c r="CA51" s="4"/>
+      <c r="CB51" s="4"/>
+      <c r="CC51" s="4"/>
+      <c r="CD51" s="4"/>
+      <c r="CE51" s="4"/>
+      <c r="CF51" s="4"/>
+      <c r="CG51" s="4"/>
+      <c r="CH51" s="4"/>
+      <c r="CI51" s="4"/>
+      <c r="CJ51" s="4"/>
+      <c r="CK51" s="4"/>
+      <c r="CL51" s="4"/>
+      <c r="CM51" s="4"/>
+      <c r="CN51" s="4"/>
+      <c r="CO51" s="4"/>
+      <c r="CP51" s="4"/>
+      <c r="CQ51" s="4"/>
+      <c r="CR51" s="4"/>
+      <c r="CS51" s="4"/>
+      <c r="CT51" s="4"/>
+      <c r="CU51" s="4"/>
+      <c r="CV51" s="4"/>
+      <c r="CW51" s="4"/>
+      <c r="CX51" s="4"/>
+      <c r="CY51" s="4"/>
+      <c r="CZ51" s="4"/>
+      <c r="DA51" s="4"/>
+      <c r="DB51" s="4"/>
+      <c r="DC51" s="4"/>
+      <c r="DD51" s="4"/>
+      <c r="DE51" s="4"/>
+      <c r="DF51" s="4"/>
+      <c r="DG51" s="4"/>
+      <c r="DH51" s="4"/>
+      <c r="DI51" s="4"/>
+      <c r="DJ51" s="3"/>
+    </row>
+    <row r="52" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="BZ52">
+        <f>77-18</f>
+        <v>59</v>
+      </c>
+      <c r="CQ52">
+        <f>94-18</f>
+        <v>76</v>
+      </c>
+      <c r="DF52">
+        <f>109-18</f>
+        <v>91</v>
+      </c>
+      <c r="DJ52" s="3"/>
+    </row>
+    <row r="53" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="DJ53" s="3"/>
+    </row>
+    <row r="54" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="DJ54" s="3"/>
+    </row>
+    <row r="55" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="DJ55" s="3"/>
+    </row>
+    <row r="56" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="DJ56" s="3"/>
+    </row>
+    <row r="57" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="DJ57" s="3"/>
+    </row>
+    <row r="58" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="DJ58" s="3"/>
+    </row>
+    <row r="59" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="DJ59" s="3"/>
+    </row>
+    <row r="60" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="DJ60" s="3"/>
+    </row>
+    <row r="61" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="DJ61" s="3"/>
+    </row>
+    <row r="62" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="DJ62" s="3"/>
+    </row>
+    <row r="63" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="DJ63" s="3"/>
+    </row>
+    <row r="64" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="DJ64" s="3"/>
+    </row>
+    <row r="65" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="4"/>
+      <c r="AF65" s="4"/>
+      <c r="AG65" s="4"/>
+      <c r="AH65" s="4"/>
+      <c r="AI65" s="4"/>
+      <c r="AJ65" s="4"/>
+      <c r="AK65" s="4"/>
+      <c r="AL65" s="4"/>
+      <c r="AM65" s="4"/>
+      <c r="AN65" s="4"/>
+      <c r="AO65" s="4"/>
+      <c r="AP65" s="4"/>
+      <c r="AQ65" s="4"/>
+      <c r="AR65" s="4"/>
+      <c r="AS65" s="4"/>
+      <c r="AT65" s="4"/>
+      <c r="AU65" s="4"/>
+      <c r="AV65" s="4"/>
+      <c r="AW65" s="4"/>
+      <c r="AX65" s="4"/>
+      <c r="AY65" s="4"/>
+      <c r="AZ65" s="4"/>
+      <c r="BA65" s="4"/>
+      <c r="BB65" s="4"/>
+      <c r="BC65" s="4"/>
+      <c r="BD65" s="4"/>
+      <c r="BE65" s="4"/>
+      <c r="BF65" s="4"/>
+      <c r="BG65" s="4"/>
+      <c r="BH65" s="4"/>
+      <c r="BI65" s="4"/>
+      <c r="BJ65" s="4"/>
+      <c r="BK65" s="4"/>
+      <c r="BL65" s="4"/>
+      <c r="BM65" s="4"/>
+      <c r="BN65" s="4"/>
+      <c r="BO65" s="4"/>
+      <c r="BP65" s="4"/>
+      <c r="BQ65" s="4"/>
+      <c r="BR65" s="4"/>
+      <c r="BS65" s="4"/>
+      <c r="BT65" s="4"/>
+      <c r="BU65" s="4"/>
+      <c r="BV65" s="4"/>
+      <c r="BW65" s="4"/>
+      <c r="BX65" s="4"/>
+      <c r="BY65" s="4"/>
+      <c r="BZ65" s="4"/>
+      <c r="CA65" s="4"/>
+      <c r="CB65" s="4"/>
+      <c r="CC65" s="4"/>
+      <c r="CD65" s="4"/>
+      <c r="CE65" s="4"/>
+      <c r="CF65" s="4"/>
+      <c r="CG65" s="4"/>
+      <c r="CH65" s="4"/>
+      <c r="CI65" s="4"/>
+      <c r="CJ65" s="4"/>
+      <c r="CK65" s="4"/>
+      <c r="CL65" s="4"/>
+      <c r="CM65" s="4"/>
+      <c r="CN65" s="4"/>
+      <c r="CO65" s="4"/>
+      <c r="CP65" s="4"/>
+      <c r="CQ65" s="4"/>
+      <c r="CR65" s="4"/>
+      <c r="CS65" s="4"/>
+      <c r="CT65" s="4"/>
+      <c r="CU65" s="4"/>
+      <c r="CV65" s="4"/>
+      <c r="CW65" s="4"/>
+      <c r="CX65" s="4"/>
+      <c r="CY65" s="4"/>
+      <c r="CZ65" s="4"/>
+      <c r="DA65" s="4"/>
+      <c r="DB65" s="4"/>
+      <c r="DC65" s="4"/>
+      <c r="DD65" s="4"/>
+      <c r="DE65" s="4"/>
+      <c r="DF65" s="4"/>
+      <c r="DG65" s="4"/>
+      <c r="DH65" s="4"/>
+      <c r="DI65" s="4"/>
+      <c r="DJ65" s="3"/>
+    </row>
+    <row r="66" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DJ66" s="3"/>
+    </row>
+    <row r="67" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DJ67" s="3"/>
+    </row>
+    <row r="68" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="S68">
+        <f>MATCH("x",S2:S50)</f>
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <f t="shared" ref="T68:CE68" si="0">MATCH("x",T2:T50)</f>
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AF68">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AG68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AH68">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AI68">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AJ68">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AK68">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AL68">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AM68">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AN68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AO68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AP68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AQ68">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AR68">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AS68">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AT68">
+        <f>MATCH("x",AT2:AT50)</f>
+        <v>7</v>
+      </c>
+      <c r="AU68">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AV68">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AW68">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AX68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AY68">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AZ68">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="BA68">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="BB68">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="BC68">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="BD68">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="BE68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="BF68">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="BG68">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="BH68">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BI68">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BJ68">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BK68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BL68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BM68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BN68">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BO68">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BP68">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BQ68">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="BR68">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="BS68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="BT68">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="BU68">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="BV68">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="BW68">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="BX68">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="BY68">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="BZ68">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="CA68">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="CB68">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="CC68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CD68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="CE68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CF68">
+        <f t="shared" ref="CF68:DF68" si="1">MATCH("x",CF2:CF50)</f>
+        <v>21</v>
+      </c>
+      <c r="CG68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CH68">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="CI68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CJ68">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="CK68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CL68">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="CM68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CN68">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="CO68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CP68">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="CQ68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CR68">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="CS68" t="e">
+        <f>MATCH("x",CS2:CS50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CT68">
+        <f>MATCH("x",CT2:CT50)</f>
+        <v>24</v>
+      </c>
+      <c r="CU68">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="CV68">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="CW68">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="CX68">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="CY68">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="CZ68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DA68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DB68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DC68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DD68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DE68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DF68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DJ68" s="3"/>
+    </row>
+    <row r="69" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="S69">
+        <f>S1</f>
+        <v>18</v>
+      </c>
+      <c r="T69">
+        <f t="shared" ref="T69:CE69" si="2">T1</f>
+        <v>19</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AF69">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="AG69">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="AH69">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="AI69">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="AJ69">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="AK69">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="AL69">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="AM69">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="AN69">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="AO69">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="AP69">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="AQ69">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="AR69">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="AS69">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="AT69">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="AU69">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="AV69">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="AW69">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="AX69">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="AY69">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="AZ69">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="BA69">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="BB69">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="BC69">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="BD69">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="BE69">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="BF69">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="BG69">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="BH69">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="BI69">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="BJ69">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="BK69">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="BL69">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="BM69">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="BN69">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="BO69">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="BP69">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="BQ69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="BR69">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="BS69">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="BT69">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="BU69">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="BV69">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="BW69">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="BX69">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="BY69">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="BZ69">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="CA69">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="CB69">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="CC69">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="CD69">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="CE69">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="CF69">
+        <f t="shared" ref="CF69:DF69" si="3">CF1</f>
+        <v>83</v>
+      </c>
+      <c r="CG69">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="CH69">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="CI69">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="CJ69">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="CK69">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="CL69">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="CM69">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="CN69">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="CO69">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="CP69">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="CQ69">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="CR69">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="CS69">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="CT69">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="CU69">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="CV69">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="CW69">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="CX69">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="CY69">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="CZ69">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="DA69">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="DB69">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="DC69">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="DD69">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="DE69">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="DF69">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="DJ69" s="3"/>
+    </row>
+    <row r="70" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DJ70" s="3"/>
+    </row>
+    <row r="71" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="S71" t="str">
+        <f>CONCATENATE(S69,", ", S68, ", ")</f>
+        <v xml:space="preserve">18, 1, </v>
+      </c>
+      <c r="T71" t="str">
+        <f t="shared" ref="T71:CE71" si="4">CONCATENATE(T69,", ", T68, ", ")</f>
+        <v xml:space="preserve">19, 1, </v>
+      </c>
+      <c r="U71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">20, 1, </v>
+      </c>
+      <c r="V71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">21, 1, </v>
+      </c>
+      <c r="W71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">22, 2, </v>
+      </c>
+      <c r="X71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">23, 4, </v>
+      </c>
+      <c r="Y71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">24, 7, </v>
+      </c>
+      <c r="Z71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">25, 11, </v>
+      </c>
+      <c r="AA71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">26, 16, </v>
+      </c>
+      <c r="AB71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">27, 23, </v>
+      </c>
+      <c r="AC71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">28, 30, </v>
+      </c>
+      <c r="AD71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">29, 37, </v>
+      </c>
+      <c r="AE71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">30, 32, </v>
+      </c>
+      <c r="AF71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">31, 27, </v>
+      </c>
+      <c r="AG71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">32, 22, </v>
+      </c>
+      <c r="AH71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">33, 17, </v>
+      </c>
+      <c r="AI71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">34, 12, </v>
+      </c>
+      <c r="AJ71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">35, 8, </v>
+      </c>
+      <c r="AK71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">36, 5, </v>
+      </c>
+      <c r="AL71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">37, 3, </v>
+      </c>
+      <c r="AM71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">38, 2, </v>
+      </c>
+      <c r="AN71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">39, 1, </v>
+      </c>
+      <c r="AO71" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AP71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">41, 1, </v>
+      </c>
+      <c r="AQ71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">42, 2, </v>
+      </c>
+      <c r="AR71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">43, 3, </v>
+      </c>
+      <c r="AS71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">44, 5, </v>
+      </c>
+      <c r="AT71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">45, 7, </v>
+      </c>
+      <c r="AU71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">46, 10, </v>
+      </c>
+      <c r="AV71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">47, 13, </v>
+      </c>
+      <c r="AW71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">48, 17, </v>
+      </c>
+      <c r="AX71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">49, 22, </v>
+      </c>
+      <c r="AY71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">50, 27, </v>
+      </c>
+      <c r="AZ71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">51, 33, </v>
+      </c>
+      <c r="BA71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">52, 37, </v>
+      </c>
+      <c r="BB71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">53, 33, </v>
+      </c>
+      <c r="BC71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">54, 30, </v>
+      </c>
+      <c r="BD71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">55, 26, </v>
+      </c>
+      <c r="BE71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">56, 22, </v>
+      </c>
+      <c r="BF71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">57, 18, </v>
+      </c>
+      <c r="BG71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">58, 14, </v>
+      </c>
+      <c r="BH71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">59, 11, </v>
+      </c>
+      <c r="BI71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">60, 9, </v>
+      </c>
+      <c r="BJ71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">61, 8, </v>
+      </c>
+      <c r="BK71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">62, 7, </v>
+      </c>
+      <c r="BL71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">63, 7, </v>
+      </c>
+      <c r="BM71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">64, 7, </v>
+      </c>
+      <c r="BN71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">65, 8, </v>
+      </c>
+      <c r="BO71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">66, 9, </v>
+      </c>
+      <c r="BP71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">67, 11, </v>
+      </c>
+      <c r="BQ71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">68, 14, </v>
+      </c>
+      <c r="BR71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">69, 18, </v>
+      </c>
+      <c r="BS71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">70, 22, </v>
+      </c>
+      <c r="BT71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">71, 26, </v>
+      </c>
+      <c r="BU71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">72, 30, </v>
+      </c>
+      <c r="BV71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">73, 33, </v>
+      </c>
+      <c r="BW71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">74, 37, </v>
+      </c>
+      <c r="BX71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">75, 34, </v>
+      </c>
+      <c r="BY71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">76, 31, </v>
+      </c>
+      <c r="BZ71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">77, 28, </v>
+      </c>
+      <c r="CA71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">78, 26, </v>
+      </c>
+      <c r="CB71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">79, 24, </v>
+      </c>
+      <c r="CC71" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CD71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">81, 22, </v>
+      </c>
+      <c r="CE71" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CF71" t="str">
+        <f t="shared" ref="CF71:DF71" si="5">CONCATENATE(CF69,", ", CF68, ", ")</f>
+        <v xml:space="preserve">83, 21, </v>
+      </c>
+      <c r="CG71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CH71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">85, 20, </v>
+      </c>
+      <c r="CI71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CJ71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">87, 20, </v>
+      </c>
+      <c r="CK71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CL71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">89, 20, </v>
+      </c>
+      <c r="CM71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CN71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">91, 20, </v>
+      </c>
+      <c r="CO71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CP71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">93, 21, </v>
+      </c>
+      <c r="CQ71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CR71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">95, 22, </v>
+      </c>
+      <c r="CS71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CT71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">97, 24, </v>
+      </c>
+      <c r="CU71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">98, 26, </v>
+      </c>
+      <c r="CV71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">99, 28, </v>
+      </c>
+      <c r="CW71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">100, 31, </v>
+      </c>
+      <c r="CX71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">101, 34, </v>
+      </c>
+      <c r="CY71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">102, 37, </v>
+      </c>
+      <c r="CZ71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DA71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DB71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DC71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DD71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DE71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DF71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DJ71" s="3"/>
+    </row>
+    <row r="72" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DJ72" s="3"/>
+    </row>
+    <row r="73" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DJ73" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD71E4A4-1C74-0C44-93A1-FB54A438C00F}">
+  <dimension ref="A1:EW73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="S71" sqref="S71:Z71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="19" max="19" width="3.1640625" customWidth="1"/>
+    <col min="114" max="153" width="3.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+      <c r="CC1">
+        <v>80</v>
+      </c>
+      <c r="CD1">
+        <v>81</v>
+      </c>
+      <c r="CE1">
+        <v>82</v>
+      </c>
+      <c r="CF1">
+        <v>83</v>
+      </c>
+      <c r="CG1">
+        <v>84</v>
+      </c>
+      <c r="CH1">
+        <v>85</v>
+      </c>
+      <c r="CI1">
+        <v>86</v>
+      </c>
+      <c r="CJ1">
+        <v>87</v>
+      </c>
+      <c r="CK1">
+        <v>88</v>
+      </c>
+      <c r="CL1">
+        <v>89</v>
+      </c>
+      <c r="CM1">
+        <v>90</v>
+      </c>
+      <c r="CN1">
+        <v>91</v>
+      </c>
+      <c r="CO1">
+        <v>92</v>
+      </c>
+      <c r="CP1">
+        <v>93</v>
+      </c>
+      <c r="CQ1">
+        <v>94</v>
+      </c>
+      <c r="CR1">
+        <v>95</v>
+      </c>
+      <c r="CS1">
+        <v>96</v>
+      </c>
+      <c r="CT1">
+        <v>97</v>
+      </c>
+      <c r="CU1">
+        <v>98</v>
+      </c>
+      <c r="CV1">
+        <v>99</v>
+      </c>
+      <c r="CW1">
+        <v>100</v>
+      </c>
+      <c r="CX1">
+        <v>101</v>
+      </c>
+      <c r="CY1">
+        <v>102</v>
+      </c>
+      <c r="CZ1">
+        <v>103</v>
+      </c>
+      <c r="DA1">
+        <v>104</v>
+      </c>
+      <c r="DB1">
+        <v>105</v>
+      </c>
+      <c r="DC1">
+        <v>106</v>
+      </c>
+      <c r="DD1">
+        <v>107</v>
+      </c>
+      <c r="DE1">
+        <v>108</v>
+      </c>
+      <c r="DF1">
+        <v>109</v>
+      </c>
+      <c r="DG1">
+        <v>110</v>
+      </c>
+      <c r="DH1">
+        <v>111</v>
+      </c>
+      <c r="DI1">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="3"/>
+    </row>
+    <row r="2" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="AN2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="2"/>
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="2"/>
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CF2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="2"/>
+      <c r="CM2" s="2"/>
+      <c r="CN2" s="2"/>
+      <c r="CO2" s="2"/>
+      <c r="CP2" s="2"/>
+      <c r="CQ2" s="2"/>
+      <c r="CR2" s="2"/>
+      <c r="CS2" s="2"/>
+      <c r="CT2" s="2"/>
+      <c r="CU2" s="2"/>
+      <c r="CV2" s="2"/>
+      <c r="CW2" s="2"/>
+      <c r="CX2" s="2"/>
+      <c r="CY2" s="2"/>
+      <c r="CZ2" s="2"/>
+      <c r="DA2" s="2"/>
+      <c r="DB2" s="2"/>
+      <c r="DC2" s="2"/>
+      <c r="DD2" s="2"/>
+      <c r="DE2" s="6"/>
+      <c r="DF2" s="6"/>
+      <c r="DG2" s="6"/>
+      <c r="DH2" s="6"/>
+      <c r="DI2" s="6"/>
+      <c r="DJ2" s="3"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="AM3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CA3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CF3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CH3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="2"/>
+      <c r="CL3" s="2"/>
+      <c r="CM3" s="2"/>
+      <c r="CN3" s="2"/>
+      <c r="CO3" s="2"/>
+      <c r="CP3" s="2"/>
+      <c r="CQ3" s="2"/>
+      <c r="CR3" s="2"/>
+      <c r="CS3" s="2"/>
+      <c r="CT3" s="2"/>
+      <c r="CU3" s="2"/>
+      <c r="CV3" s="2"/>
+      <c r="CW3" s="2"/>
+      <c r="CX3" s="2"/>
+      <c r="CY3" s="2"/>
+      <c r="CZ3" s="2"/>
+      <c r="DA3" s="2"/>
+      <c r="DB3" s="2"/>
+      <c r="DC3" s="2"/>
+      <c r="DD3" s="2"/>
+      <c r="DE3" s="6"/>
+      <c r="DF3" s="6"/>
+      <c r="DG3" s="6"/>
+      <c r="DH3" s="6"/>
+      <c r="DI3" s="6"/>
+      <c r="DJ3" s="3"/>
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+    </row>
+    <row r="4" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="W4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
+      <c r="CS4" s="2"/>
+      <c r="CT4" s="2"/>
+      <c r="CU4" s="2"/>
+      <c r="CV4" s="2"/>
+      <c r="CW4" s="2"/>
+      <c r="CX4" s="2"/>
+      <c r="CY4" s="2"/>
+      <c r="CZ4" s="2"/>
+      <c r="DA4" s="2"/>
+      <c r="DB4" s="2"/>
+      <c r="DC4" s="2"/>
+      <c r="DD4" s="2"/>
+      <c r="DE4" s="6"/>
+      <c r="DF4" s="6"/>
+      <c r="DG4" s="6"/>
+      <c r="DH4" s="6"/>
+      <c r="DI4" s="6"/>
+      <c r="DJ4" s="3"/>
+      <c r="DK4"/>
+      <c r="DL4"/>
+      <c r="DM4"/>
+      <c r="DN4"/>
+      <c r="DO4"/>
+      <c r="DP4"/>
+      <c r="DQ4"/>
+    </row>
+    <row r="5" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="V5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="2"/>
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="2"/>
+      <c r="CI5" s="2"/>
+      <c r="CJ5" s="2"/>
+      <c r="CK5" s="2"/>
+      <c r="CL5" s="2"/>
+      <c r="CM5" s="2"/>
+      <c r="CN5" s="2"/>
+      <c r="CO5" s="2"/>
+      <c r="CP5" s="2"/>
+      <c r="CQ5" s="2"/>
+      <c r="CR5" s="2"/>
+      <c r="CS5" s="2"/>
+      <c r="CT5" s="2"/>
+      <c r="CU5" s="2"/>
+      <c r="CV5" s="2"/>
+      <c r="CW5" s="2"/>
+      <c r="CX5" s="2"/>
+      <c r="CY5" s="2"/>
+      <c r="CZ5" s="2"/>
+      <c r="DA5" s="2"/>
+      <c r="DB5" s="2"/>
+      <c r="DC5" s="2"/>
+      <c r="DD5" s="2"/>
+      <c r="DE5" s="6"/>
+      <c r="DF5" s="6"/>
+      <c r="DG5" s="6"/>
+      <c r="DH5" s="6"/>
+      <c r="DI5" s="6"/>
+      <c r="DJ5" s="3"/>
+      <c r="DK5"/>
+      <c r="DL5"/>
+      <c r="DM5"/>
+      <c r="DN5"/>
+      <c r="DO5"/>
+      <c r="DP5"/>
+      <c r="DQ5"/>
+    </row>
+    <row r="6" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="AK6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="2"/>
+      <c r="BY6" s="2"/>
+      <c r="BZ6" s="2"/>
+      <c r="CA6" s="2"/>
+      <c r="CB6" s="2"/>
+      <c r="CC6" s="2"/>
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="2"/>
+      <c r="CF6" s="2"/>
+      <c r="CG6" s="2"/>
+      <c r="CH6" s="2"/>
+      <c r="CI6" s="2"/>
+      <c r="CJ6" s="2"/>
+      <c r="CK6" s="2"/>
+      <c r="CL6" s="2"/>
+      <c r="CM6" s="2"/>
+      <c r="CN6" s="2"/>
+      <c r="CO6" s="2"/>
+      <c r="CP6" s="2"/>
+      <c r="CQ6" s="2"/>
+      <c r="CR6" s="2"/>
+      <c r="CS6" s="2"/>
+      <c r="CT6" s="2"/>
+      <c r="CU6" s="2"/>
+      <c r="CV6" s="2"/>
+      <c r="CW6" s="2"/>
+      <c r="CX6" s="2"/>
+      <c r="CY6" s="2"/>
+      <c r="CZ6" s="2"/>
+      <c r="DA6" s="2"/>
+      <c r="DB6" s="2"/>
+      <c r="DC6" s="2"/>
+      <c r="DD6" s="2"/>
+      <c r="DE6" s="6"/>
+      <c r="DF6" s="6"/>
+      <c r="DG6" s="6"/>
+      <c r="DH6" s="6"/>
+      <c r="DI6" s="6"/>
+      <c r="DJ6" s="3"/>
+      <c r="DK6"/>
+      <c r="DL6"/>
+      <c r="DM6"/>
+      <c r="DN6"/>
+      <c r="DO6"/>
+      <c r="DP6"/>
+      <c r="DQ6"/>
+    </row>
+    <row r="7" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="BW7" s="2"/>
+      <c r="BX7" s="2"/>
+      <c r="BY7" s="2"/>
+      <c r="BZ7" s="2"/>
+      <c r="CA7" s="2"/>
+      <c r="CB7" s="2"/>
+      <c r="CC7" s="2"/>
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="2"/>
+      <c r="CF7" s="2"/>
+      <c r="CG7" s="2"/>
+      <c r="CH7" s="2"/>
+      <c r="CI7" s="2"/>
+      <c r="CJ7" s="2"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7" s="2"/>
+      <c r="CM7" s="2"/>
+      <c r="CN7" s="2"/>
+      <c r="CO7" s="2"/>
+      <c r="CP7" s="2"/>
+      <c r="CQ7" s="2"/>
+      <c r="CR7" s="2"/>
+      <c r="CS7" s="2"/>
+      <c r="CT7" s="2"/>
+      <c r="CU7" s="2"/>
+      <c r="CV7" s="2"/>
+      <c r="CW7" s="2"/>
+      <c r="CX7" s="2"/>
+      <c r="CY7" s="2"/>
+      <c r="CZ7" s="2"/>
+      <c r="DA7" s="2"/>
+      <c r="DB7" s="2"/>
+      <c r="DC7" s="2"/>
+      <c r="DD7" s="2"/>
+      <c r="DE7" s="6"/>
+      <c r="DF7" s="6"/>
+      <c r="DG7" s="6"/>
+      <c r="DH7" s="6"/>
+      <c r="DI7" s="6"/>
+      <c r="DJ7" s="3"/>
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+    </row>
+    <row r="8" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="U8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="2"/>
+      <c r="BX8" s="2"/>
+      <c r="BY8" s="2"/>
+      <c r="BZ8" s="2"/>
+      <c r="CA8" s="2"/>
+      <c r="CB8" s="2"/>
+      <c r="CC8" s="2"/>
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="2"/>
+      <c r="CF8" s="2"/>
+      <c r="CG8" s="2"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8" s="2"/>
+      <c r="CJ8" s="2"/>
+      <c r="CK8" s="2"/>
+      <c r="CL8" s="2"/>
+      <c r="CM8" s="2"/>
+      <c r="CN8" s="2"/>
+      <c r="CO8" s="2"/>
+      <c r="CP8" s="2"/>
+      <c r="CQ8" s="2"/>
+      <c r="CR8" s="2"/>
+      <c r="CS8" s="2"/>
+      <c r="CT8" s="2"/>
+      <c r="CU8" s="2"/>
+      <c r="CV8" s="2"/>
+      <c r="CW8" s="2"/>
+      <c r="CX8" s="2"/>
+      <c r="CY8" s="2"/>
+      <c r="CZ8" s="2"/>
+      <c r="DA8" s="2"/>
+      <c r="DB8" s="2"/>
+      <c r="DC8" s="2"/>
+      <c r="DD8" s="2"/>
+      <c r="DE8" s="6"/>
+      <c r="DF8" s="6"/>
+      <c r="DG8" s="6"/>
+      <c r="DH8" s="6"/>
+      <c r="DI8" s="6"/>
+      <c r="DJ8" s="3"/>
+      <c r="DK8"/>
+      <c r="DL8"/>
+      <c r="DM8"/>
+      <c r="DN8"/>
+      <c r="DO8"/>
+      <c r="DP8"/>
+      <c r="DQ8"/>
+    </row>
+    <row r="9" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="AJ9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="2"/>
+      <c r="BX9" s="2"/>
+      <c r="BY9" s="2"/>
+      <c r="BZ9" s="2"/>
+      <c r="CA9" s="2"/>
+      <c r="CB9" s="2"/>
+      <c r="CC9" s="2"/>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="2"/>
+      <c r="CF9" s="2"/>
+      <c r="CG9" s="2"/>
+      <c r="CH9" s="2"/>
+      <c r="CI9" s="2"/>
+      <c r="CJ9" s="2"/>
+      <c r="CK9" s="2"/>
+      <c r="CL9" s="2"/>
+      <c r="CM9" s="2"/>
+      <c r="CN9" s="2"/>
+      <c r="CO9" s="2"/>
+      <c r="CP9" s="2"/>
+      <c r="CQ9" s="2"/>
+      <c r="CR9" s="2"/>
+      <c r="CS9" s="2"/>
+      <c r="CT9" s="2"/>
+      <c r="CU9" s="2"/>
+      <c r="CV9" s="2"/>
+      <c r="CW9" s="2"/>
+      <c r="CX9" s="2"/>
+      <c r="CY9" s="2"/>
+      <c r="CZ9" s="2"/>
+      <c r="DA9" s="2"/>
+      <c r="DB9" s="2"/>
+      <c r="DC9" s="2"/>
+      <c r="DD9" s="2"/>
+      <c r="DE9" s="6"/>
+      <c r="DF9" s="6"/>
+      <c r="DG9" s="6"/>
+      <c r="DH9" s="6"/>
+      <c r="DI9" s="6"/>
+      <c r="DJ9" s="3"/>
+      <c r="DK9"/>
+      <c r="DL9"/>
+      <c r="DM9"/>
+      <c r="DN9"/>
+      <c r="DO9"/>
+      <c r="DP9"/>
+      <c r="DQ9"/>
+    </row>
+    <row r="10" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="BI10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="2"/>
+      <c r="BX10" s="2"/>
+      <c r="BY10" s="2"/>
+      <c r="BZ10" s="2"/>
+      <c r="CA10" s="2"/>
+      <c r="CB10" s="2"/>
+      <c r="CC10" s="2"/>
+      <c r="CD10" s="2"/>
+      <c r="CE10" s="2"/>
+      <c r="CF10" s="2"/>
+      <c r="CG10" s="2"/>
+      <c r="CH10" s="2"/>
+      <c r="CI10" s="2"/>
+      <c r="CJ10" s="2"/>
+      <c r="CK10" s="2"/>
+      <c r="CL10" s="2"/>
+      <c r="CM10" s="2"/>
+      <c r="CN10" s="2"/>
+      <c r="CO10" s="2"/>
+      <c r="CP10" s="2"/>
+      <c r="CQ10" s="2"/>
+      <c r="CR10" s="2"/>
+      <c r="CS10" s="2"/>
+      <c r="CT10" s="2"/>
+      <c r="CU10" s="2"/>
+      <c r="CV10" s="2"/>
+      <c r="CW10" s="2"/>
+      <c r="CX10" s="2"/>
+      <c r="CY10" s="2"/>
+      <c r="CZ10" s="2"/>
+      <c r="DA10" s="2"/>
+      <c r="DB10" s="2"/>
+      <c r="DC10" s="2"/>
+      <c r="DD10" s="2"/>
+      <c r="DE10" s="6"/>
+      <c r="DF10" s="6"/>
+      <c r="DG10" s="6"/>
+      <c r="DH10" s="6"/>
+      <c r="DI10" s="6"/>
+      <c r="DJ10" s="3"/>
+      <c r="DK10"/>
+      <c r="DL10"/>
+      <c r="DM10"/>
+      <c r="DN10"/>
+      <c r="DO10"/>
+      <c r="DP10"/>
+      <c r="DQ10"/>
+    </row>
+    <row r="11" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="AU11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="2"/>
+      <c r="BX11" s="2"/>
+      <c r="BY11" s="2"/>
+      <c r="BZ11" s="2"/>
+      <c r="CA11" s="2"/>
+      <c r="CB11" s="2"/>
+      <c r="CC11" s="2"/>
+      <c r="CD11" s="2"/>
+      <c r="CE11" s="2"/>
+      <c r="CF11" s="2"/>
+      <c r="CG11" s="2"/>
+      <c r="CH11" s="2"/>
+      <c r="CI11" s="2"/>
+      <c r="CJ11" s="2"/>
+      <c r="CK11" s="2"/>
+      <c r="CL11" s="2"/>
+      <c r="CM11" s="2"/>
+      <c r="CN11" s="2"/>
+      <c r="CO11" s="2"/>
+      <c r="CP11" s="2"/>
+      <c r="CQ11" s="2"/>
+      <c r="CR11" s="2"/>
+      <c r="CS11" s="2"/>
+      <c r="CT11" s="2"/>
+      <c r="CU11" s="2"/>
+      <c r="CV11" s="2"/>
+      <c r="CW11" s="2"/>
+      <c r="CX11" s="2"/>
+      <c r="CY11" s="2"/>
+      <c r="CZ11" s="2"/>
+      <c r="DA11" s="2"/>
+      <c r="DB11" s="2"/>
+      <c r="DC11" s="2"/>
+      <c r="DD11" s="2"/>
+      <c r="DE11" s="6"/>
+      <c r="DF11" s="6"/>
+      <c r="DG11" s="6"/>
+      <c r="DH11" s="6"/>
+      <c r="DI11" s="6"/>
+      <c r="DJ11" s="3"/>
+      <c r="DK11"/>
+      <c r="DL11"/>
+      <c r="DM11"/>
+      <c r="DN11"/>
+      <c r="DO11"/>
+      <c r="DP11"/>
+      <c r="DQ11"/>
+    </row>
+    <row r="12" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="T12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX12" s="2"/>
+      <c r="BY12" s="2"/>
+      <c r="BZ12" s="2"/>
+      <c r="CA12" s="2"/>
+      <c r="CB12" s="2"/>
+      <c r="CC12" s="2"/>
+      <c r="CD12" s="2"/>
+      <c r="CE12" s="2"/>
+      <c r="CF12" s="2"/>
+      <c r="CG12" s="2"/>
+      <c r="CH12" s="2"/>
+      <c r="CI12" s="2"/>
+      <c r="CJ12" s="2"/>
+      <c r="CK12" s="2"/>
+      <c r="CL12" s="2"/>
+      <c r="CM12" s="2"/>
+      <c r="CN12" s="2"/>
+      <c r="CO12" s="2"/>
+      <c r="CP12" s="2"/>
+      <c r="CQ12" s="2"/>
+      <c r="CR12" s="2"/>
+      <c r="CS12" s="2"/>
+      <c r="CT12" s="2"/>
+      <c r="CU12" s="2"/>
+      <c r="CV12" s="2"/>
+      <c r="CW12" s="2"/>
+      <c r="CX12" s="2"/>
+      <c r="CY12" s="2"/>
+      <c r="CZ12" s="2"/>
+      <c r="DA12" s="2"/>
+      <c r="DB12" s="2"/>
+      <c r="DC12" s="2"/>
+      <c r="DD12" s="2"/>
+      <c r="DE12" s="6"/>
+      <c r="DF12" s="6"/>
+      <c r="DG12" s="6"/>
+      <c r="DH12" s="6"/>
+      <c r="DI12" s="6"/>
+      <c r="DJ12" s="3"/>
+      <c r="DK12"/>
+      <c r="DL12"/>
+      <c r="DM12"/>
+      <c r="DN12"/>
+      <c r="DO12"/>
+      <c r="DP12"/>
+      <c r="DQ12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="AI13" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ13" s="3"/>
+    </row>
+    <row r="14" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="AV14" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ14" s="3"/>
+    </row>
+    <row r="15" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="BG15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ15" s="3"/>
+    </row>
+    <row r="16" spans="1:121" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ16" s="3"/>
+    </row>
+    <row r="17" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="AA17" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ17" s="3"/>
+    </row>
+    <row r="18" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="AH18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ18" s="3"/>
+    </row>
+    <row r="19" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="BF19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ19" s="3"/>
+    </row>
+    <row r="20" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="DJ20" s="3"/>
+    </row>
+    <row r="21" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="CH21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ21" s="3"/>
+    </row>
+    <row r="22" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="CF22" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ22" s="3"/>
+    </row>
+    <row r="23" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="AG23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ23" s="3"/>
+    </row>
+    <row r="24" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="AB24" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ24" s="3"/>
+    </row>
+    <row r="25" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="CB25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT25" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ25" s="3"/>
+    </row>
+    <row r="26" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="DJ26" s="3"/>
+    </row>
+    <row r="27" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="BD27" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU27" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ27" s="3"/>
+    </row>
+    <row r="28" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="AF28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ28" s="3"/>
+    </row>
+    <row r="29" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="BZ29" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV29" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ29" s="3"/>
+    </row>
+    <row r="30" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="DJ30" s="3"/>
+    </row>
+    <row r="31" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="AC31" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ31" s="3"/>
+    </row>
+    <row r="32" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="BY32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ32" s="3"/>
+    </row>
+    <row r="33" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="AE33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="DJ33" s="3"/>
+    </row>
+    <row r="34" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="AZ34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ34" s="3"/>
+    </row>
+    <row r="35" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="BX35" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX35" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ35" s="3"/>
+    </row>
+    <row r="36" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="DJ36" s="3"/>
+    </row>
+    <row r="37" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="DJ37" s="3"/>
+    </row>
+    <row r="38" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="AD38" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>0</v>
+      </c>
+      <c r="CY38" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ38" s="3"/>
+    </row>
+    <row r="39" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4"/>
+      <c r="AU39" s="4"/>
+      <c r="AV39" s="4"/>
+      <c r="AW39" s="4"/>
+      <c r="AX39" s="4"/>
+      <c r="AY39" s="4"/>
+      <c r="AZ39" s="4"/>
+      <c r="BA39" s="4"/>
+      <c r="BB39" s="4"/>
+      <c r="BC39" s="4"/>
+      <c r="BD39" s="4"/>
+      <c r="BE39" s="4"/>
+      <c r="BF39" s="4"/>
+      <c r="BG39" s="4"/>
+      <c r="BH39" s="4"/>
+      <c r="BI39" s="4"/>
+      <c r="BJ39" s="4"/>
+      <c r="BK39" s="4"/>
+      <c r="BL39" s="4"/>
+      <c r="BM39" s="4"/>
+      <c r="BN39" s="4"/>
+      <c r="BO39" s="4"/>
+      <c r="BP39" s="4"/>
+      <c r="BQ39" s="4"/>
+      <c r="BR39" s="4"/>
+      <c r="BS39" s="4"/>
+      <c r="BT39" s="4"/>
+      <c r="BU39" s="4"/>
+      <c r="BV39" s="4"/>
+      <c r="BW39" s="4"/>
+      <c r="BX39" s="4"/>
+      <c r="BY39" s="4"/>
+      <c r="BZ39" s="4"/>
+      <c r="CA39" s="4"/>
+      <c r="CB39" s="4"/>
+      <c r="CC39" s="4"/>
+      <c r="CD39" s="4"/>
+      <c r="CE39" s="4"/>
+      <c r="CF39" s="4"/>
+      <c r="CG39" s="4"/>
+      <c r="CH39" s="4"/>
+      <c r="CI39" s="4"/>
+      <c r="CJ39" s="4"/>
+      <c r="CK39" s="4"/>
+      <c r="CL39" s="4"/>
+      <c r="CM39" s="4"/>
+      <c r="CN39" s="4"/>
+      <c r="CO39" s="4"/>
+      <c r="CP39" s="4"/>
+      <c r="CQ39" s="4"/>
+      <c r="CR39" s="4"/>
+      <c r="CS39" s="4"/>
+      <c r="CT39" s="4"/>
+      <c r="CU39" s="4"/>
+      <c r="CV39" s="4"/>
+      <c r="CW39" s="4"/>
+      <c r="CX39" s="4"/>
+      <c r="CY39" s="4"/>
+      <c r="CZ39" s="4"/>
+      <c r="DA39" s="4"/>
+      <c r="DB39" s="4"/>
+      <c r="DC39" s="4"/>
+      <c r="DD39" s="4"/>
+      <c r="DE39" s="4"/>
+      <c r="DF39" s="4"/>
+      <c r="DG39" s="4"/>
+      <c r="DH39" s="4"/>
+      <c r="DI39" s="4"/>
+      <c r="DJ39" s="3"/>
+    </row>
+    <row r="40" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="AM40" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ40" s="3"/>
+    </row>
+    <row r="41" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="DJ41" s="3"/>
+    </row>
+    <row r="42" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="DJ42" s="3"/>
+    </row>
+    <row r="43" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="DJ43" s="3"/>
+    </row>
+    <row r="44" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="DJ44" s="3"/>
+    </row>
+    <row r="45" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="DJ45" s="3"/>
+    </row>
+    <row r="46" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="DA46" s="4"/>
+      <c r="DB46" s="4"/>
+      <c r="DC46" s="4"/>
+      <c r="DD46" s="4"/>
+      <c r="DE46" s="4"/>
+      <c r="DF46" s="4"/>
+      <c r="DG46" s="4"/>
+      <c r="DH46" s="4"/>
+      <c r="DI46" s="4"/>
+      <c r="DJ46" s="3"/>
+    </row>
+    <row r="47" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="DA47" s="4"/>
+      <c r="DB47" s="4"/>
+      <c r="DC47" s="4"/>
+      <c r="DD47" s="4"/>
+      <c r="DE47" s="4"/>
+      <c r="DF47" s="4"/>
+      <c r="DG47" s="4"/>
+      <c r="DH47" s="4"/>
+      <c r="DI47" s="4"/>
+      <c r="DJ47" s="3"/>
+    </row>
+    <row r="48" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="DA48" s="4"/>
+      <c r="DB48" s="4"/>
+      <c r="DC48" s="4"/>
+      <c r="DD48" s="4"/>
+      <c r="DE48" s="4"/>
+      <c r="DF48" s="4"/>
+      <c r="DG48" s="4"/>
+      <c r="DH48" s="4"/>
+      <c r="DI48" s="4"/>
+      <c r="DJ48" s="3"/>
+    </row>
+    <row r="49" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="DA49" s="4"/>
+      <c r="DB49" s="4"/>
+      <c r="DC49" s="4"/>
+      <c r="DD49" s="4"/>
+      <c r="DE49" s="4"/>
+      <c r="DF49" s="4"/>
+      <c r="DG49" s="4"/>
+      <c r="DH49" s="4"/>
+      <c r="DI49" s="4"/>
+      <c r="DJ49" s="3"/>
+    </row>
+    <row r="50" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="AM50" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA50" s="4"/>
+      <c r="DB50" s="4"/>
+      <c r="DC50" s="4"/>
+      <c r="DD50" s="4"/>
+      <c r="DE50" s="4"/>
+      <c r="DF50" s="4"/>
+      <c r="DG50" s="4"/>
+      <c r="DH50" s="4"/>
+      <c r="DI50" s="4"/>
+      <c r="DJ50" s="3"/>
+    </row>
+    <row r="51" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
+      <c r="AO51" s="4"/>
+      <c r="AP51" s="4"/>
+      <c r="AQ51" s="4"/>
+      <c r="AR51" s="4"/>
+      <c r="AS51" s="4"/>
+      <c r="AT51" s="4"/>
+      <c r="AU51" s="4"/>
+      <c r="AV51" s="4"/>
+      <c r="AW51" s="4"/>
+      <c r="AX51" s="4"/>
+      <c r="AY51" s="4"/>
+      <c r="AZ51" s="4"/>
+      <c r="BA51" s="4"/>
+      <c r="BB51" s="4"/>
+      <c r="BC51" s="4"/>
+      <c r="BD51" s="4"/>
+      <c r="BE51" s="4"/>
+      <c r="BF51" s="4"/>
+      <c r="BG51" s="4"/>
+      <c r="BH51" s="4"/>
+      <c r="BI51" s="4"/>
+      <c r="BJ51" s="4"/>
+      <c r="BK51" s="4"/>
+      <c r="BL51" s="4"/>
+      <c r="BM51" s="4"/>
+      <c r="BN51" s="4"/>
+      <c r="BO51" s="4"/>
+      <c r="BP51" s="4"/>
+      <c r="BQ51" s="4"/>
+      <c r="BR51" s="4"/>
+      <c r="BS51" s="4"/>
+      <c r="BT51" s="4"/>
+      <c r="BU51" s="4"/>
+      <c r="BV51" s="4"/>
+      <c r="BW51" s="4"/>
+      <c r="BX51" s="4"/>
+      <c r="BY51" s="4"/>
+      <c r="BZ51" s="4"/>
+      <c r="CA51" s="4"/>
+      <c r="CB51" s="4"/>
+      <c r="CC51" s="4"/>
+      <c r="CD51" s="4"/>
+      <c r="CE51" s="4"/>
+      <c r="CF51" s="4"/>
+      <c r="CG51" s="4"/>
+      <c r="CH51" s="4"/>
+      <c r="CI51" s="4"/>
+      <c r="CJ51" s="4"/>
+      <c r="CK51" s="4"/>
+      <c r="CL51" s="4"/>
+      <c r="CM51" s="4"/>
+      <c r="CN51" s="4"/>
+      <c r="CO51" s="4"/>
+      <c r="CP51" s="4"/>
+      <c r="CQ51" s="4"/>
+      <c r="CR51" s="4"/>
+      <c r="CS51" s="4"/>
+      <c r="CT51" s="4"/>
+      <c r="CU51" s="4"/>
+      <c r="CV51" s="4"/>
+      <c r="CW51" s="4"/>
+      <c r="CX51" s="4"/>
+      <c r="CY51" s="4"/>
+      <c r="CZ51" s="4"/>
+      <c r="DA51" s="4"/>
+      <c r="DB51" s="4"/>
+      <c r="DC51" s="4"/>
+      <c r="DD51" s="4"/>
+      <c r="DE51" s="4"/>
+      <c r="DF51" s="4"/>
+      <c r="DG51" s="4"/>
+      <c r="DH51" s="4"/>
+      <c r="DI51" s="4"/>
+      <c r="DJ51" s="3"/>
+    </row>
+    <row r="52" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="BZ52">
+        <f>77-18</f>
+        <v>59</v>
+      </c>
+      <c r="CQ52">
+        <f>94-18</f>
+        <v>76</v>
+      </c>
+      <c r="DF52">
+        <f>109-18</f>
+        <v>91</v>
+      </c>
+      <c r="DJ52" s="3"/>
+    </row>
+    <row r="53" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="DJ53" s="3"/>
+    </row>
+    <row r="54" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="DJ54" s="3"/>
+    </row>
+    <row r="55" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="DJ55" s="3"/>
+    </row>
+    <row r="56" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="DJ56" s="3"/>
+    </row>
+    <row r="57" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="DJ57" s="3"/>
+    </row>
+    <row r="58" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="DJ58" s="3"/>
+    </row>
+    <row r="59" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="DJ59" s="3"/>
+    </row>
+    <row r="60" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="DJ60" s="3"/>
+    </row>
+    <row r="61" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="DJ61" s="3"/>
+    </row>
+    <row r="62" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="DJ62" s="3"/>
+    </row>
+    <row r="63" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="DJ63" s="3"/>
+    </row>
+    <row r="64" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="DJ64" s="3"/>
+    </row>
+    <row r="65" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="4"/>
+      <c r="AF65" s="4"/>
+      <c r="AG65" s="4"/>
+      <c r="AH65" s="4"/>
+      <c r="AI65" s="4"/>
+      <c r="AJ65" s="4"/>
+      <c r="AK65" s="4"/>
+      <c r="AL65" s="4"/>
+      <c r="AM65" s="4"/>
+      <c r="AN65" s="4"/>
+      <c r="AO65" s="4"/>
+      <c r="AP65" s="4"/>
+      <c r="AQ65" s="4"/>
+      <c r="AR65" s="4"/>
+      <c r="AS65" s="4"/>
+      <c r="AT65" s="4"/>
+      <c r="AU65" s="4"/>
+      <c r="AV65" s="4"/>
+      <c r="AW65" s="4"/>
+      <c r="AX65" s="4"/>
+      <c r="AY65" s="4"/>
+      <c r="AZ65" s="4"/>
+      <c r="BA65" s="4"/>
+      <c r="BB65" s="4"/>
+      <c r="BC65" s="4"/>
+      <c r="BD65" s="4"/>
+      <c r="BE65" s="4"/>
+      <c r="BF65" s="4"/>
+      <c r="BG65" s="4"/>
+      <c r="BH65" s="4"/>
+      <c r="BI65" s="4"/>
+      <c r="BJ65" s="4"/>
+      <c r="BK65" s="4"/>
+      <c r="BL65" s="4"/>
+      <c r="BM65" s="4"/>
+      <c r="BN65" s="4"/>
+      <c r="BO65" s="4"/>
+      <c r="BP65" s="4"/>
+      <c r="BQ65" s="4"/>
+      <c r="BR65" s="4"/>
+      <c r="BS65" s="4"/>
+      <c r="BT65" s="4"/>
+      <c r="BU65" s="4"/>
+      <c r="BV65" s="4"/>
+      <c r="BW65" s="4"/>
+      <c r="BX65" s="4"/>
+      <c r="BY65" s="4"/>
+      <c r="BZ65" s="4"/>
+      <c r="CA65" s="4"/>
+      <c r="CB65" s="4"/>
+      <c r="CC65" s="4"/>
+      <c r="CD65" s="4"/>
+      <c r="CE65" s="4"/>
+      <c r="CF65" s="4"/>
+      <c r="CG65" s="4"/>
+      <c r="CH65" s="4"/>
+      <c r="CI65" s="4"/>
+      <c r="CJ65" s="4"/>
+      <c r="CK65" s="4"/>
+      <c r="CL65" s="4"/>
+      <c r="CM65" s="4"/>
+      <c r="CN65" s="4"/>
+      <c r="CO65" s="4"/>
+      <c r="CP65" s="4"/>
+      <c r="CQ65" s="4"/>
+      <c r="CR65" s="4"/>
+      <c r="CS65" s="4"/>
+      <c r="CT65" s="4"/>
+      <c r="CU65" s="4"/>
+      <c r="CV65" s="4"/>
+      <c r="CW65" s="4"/>
+      <c r="CX65" s="4"/>
+      <c r="CY65" s="4"/>
+      <c r="CZ65" s="4"/>
+      <c r="DA65" s="4"/>
+      <c r="DB65" s="4"/>
+      <c r="DC65" s="4"/>
+      <c r="DD65" s="4"/>
+      <c r="DE65" s="4"/>
+      <c r="DF65" s="4"/>
+      <c r="DG65" s="4"/>
+      <c r="DH65" s="4"/>
+      <c r="DI65" s="4"/>
+      <c r="DJ65" s="3"/>
+    </row>
+    <row r="66" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DJ66" s="3"/>
+    </row>
+    <row r="67" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DJ67" s="3"/>
+    </row>
+    <row r="68" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="S68">
+        <f>MATCH("x",S2:S50)</f>
+        <v>15</v>
+      </c>
+      <c r="T68">
+        <f t="shared" ref="T68:CE68" si="0">MATCH("x",T2:T50)</f>
+        <v>11</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AF68">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AG68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AH68">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AI68">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AJ68">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AK68">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AL68">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AM68">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AN68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AO68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AP68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AQ68">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AR68">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AS68">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AT68">
+        <f>MATCH("x",AT2:AT50)</f>
+        <v>7</v>
+      </c>
+      <c r="AU68">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AV68">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AW68">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AX68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AY68">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AZ68">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="BA68">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="BB68">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="BC68">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="BD68">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="BE68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="BF68">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="BG68">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="BH68">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BI68">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BJ68">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BK68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BL68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BM68">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BN68">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BO68">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BP68">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="BQ68">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="BR68">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="BS68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="BT68">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="BU68">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="BV68">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="BW68">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="BX68">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="BY68">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="BZ68">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="CA68">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="CB68">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="CC68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CD68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="CE68" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CF68">
+        <f t="shared" ref="CF68:DF68" si="1">MATCH("x",CF2:CF50)</f>
+        <v>21</v>
+      </c>
+      <c r="CG68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CH68">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="CI68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CJ68">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="CK68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CL68">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="CM68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CN68">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="CO68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CP68">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="CQ68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CR68">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="CS68" t="e">
+        <f>MATCH("x",CS2:CS50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CT68">
+        <f>MATCH("x",CT2:CT50)</f>
+        <v>24</v>
+      </c>
+      <c r="CU68">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="CV68">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="CW68">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="CX68">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="CY68">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="CZ68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DA68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DB68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DC68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DD68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DE68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DF68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DJ68" s="3"/>
+    </row>
+    <row r="69" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="S69">
+        <f>S1</f>
+        <v>18</v>
+      </c>
+      <c r="T69">
+        <f t="shared" ref="T69:CE69" si="2">T1</f>
+        <v>19</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AF69">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="AG69">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="AH69">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="AI69">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="AJ69">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="AK69">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="AL69">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="AM69">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="AN69">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="AO69">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="AP69">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="AQ69">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="AR69">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="AS69">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="AT69">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="AU69">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="AV69">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="AW69">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="AX69">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="AY69">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="AZ69">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="BA69">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="BB69">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="BC69">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="BD69">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="BE69">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="BF69">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="BG69">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="BH69">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="BI69">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="BJ69">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="BK69">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="BL69">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="BM69">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="BN69">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="BO69">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="BP69">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="BQ69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="BR69">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="BS69">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="BT69">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="BU69">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="BV69">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="BW69">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="BX69">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="BY69">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="BZ69">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="CA69">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="CB69">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="CC69">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="CD69">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="CE69">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="CF69">
+        <f t="shared" ref="CF69:DF69" si="3">CF1</f>
+        <v>83</v>
+      </c>
+      <c r="CG69">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="CH69">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="CI69">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="CJ69">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="CK69">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="CL69">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="CM69">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="CN69">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="CO69">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="CP69">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="CQ69">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="CR69">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="CS69">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="CT69">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="CU69">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="CV69">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="CW69">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="CX69">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="CY69">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="CZ69">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="DA69">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="DB69">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="DC69">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="DD69">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="DE69">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="DF69">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="DJ69" s="3"/>
+    </row>
+    <row r="70" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DJ70" s="3"/>
+    </row>
+    <row r="71" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="S71" t="str">
+        <f>CONCATENATE(S69,", ", S68, ", ")</f>
+        <v xml:space="preserve">18, 15, </v>
+      </c>
+      <c r="T71" t="str">
+        <f t="shared" ref="T71:CE71" si="4">CONCATENATE(T69,", ", T68, ", ")</f>
+        <v xml:space="preserve">19, 11, </v>
+      </c>
+      <c r="U71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">20, 7, </v>
+      </c>
+      <c r="V71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">21, 4, </v>
+      </c>
+      <c r="W71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">22, 3, </v>
+      </c>
+      <c r="X71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">23, 4, </v>
+      </c>
+      <c r="Y71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">24, 7, </v>
+      </c>
+      <c r="Z71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">25, 11, </v>
+      </c>
+      <c r="AA71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">26, 16, </v>
+      </c>
+      <c r="AB71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">27, 23, </v>
+      </c>
+      <c r="AC71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">28, 30, </v>
+      </c>
+      <c r="AD71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">29, 37, </v>
+      </c>
+      <c r="AE71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">30, 32, </v>
+      </c>
+      <c r="AF71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">31, 27, </v>
+      </c>
+      <c r="AG71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">32, 22, </v>
+      </c>
+      <c r="AH71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">33, 17, </v>
+      </c>
+      <c r="AI71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">34, 12, </v>
+      </c>
+      <c r="AJ71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">35, 8, </v>
+      </c>
+      <c r="AK71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">36, 5, </v>
+      </c>
+      <c r="AL71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">37, 3, </v>
+      </c>
+      <c r="AM71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">38, 2, </v>
+      </c>
+      <c r="AN71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">39, 1, </v>
+      </c>
+      <c r="AO71" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AP71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">41, 1, </v>
+      </c>
+      <c r="AQ71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">42, 2, </v>
+      </c>
+      <c r="AR71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">43, 3, </v>
+      </c>
+      <c r="AS71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">44, 5, </v>
+      </c>
+      <c r="AT71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">45, 7, </v>
+      </c>
+      <c r="AU71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">46, 10, </v>
+      </c>
+      <c r="AV71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">47, 13, </v>
+      </c>
+      <c r="AW71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">48, 17, </v>
+      </c>
+      <c r="AX71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">49, 22, </v>
+      </c>
+      <c r="AY71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">50, 27, </v>
+      </c>
+      <c r="AZ71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">51, 33, </v>
+      </c>
+      <c r="BA71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">52, 37, </v>
+      </c>
+      <c r="BB71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">53, 33, </v>
+      </c>
+      <c r="BC71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">54, 30, </v>
+      </c>
+      <c r="BD71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">55, 26, </v>
+      </c>
+      <c r="BE71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">56, 22, </v>
+      </c>
+      <c r="BF71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">57, 18, </v>
+      </c>
+      <c r="BG71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">58, 14, </v>
+      </c>
+      <c r="BH71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">59, 11, </v>
+      </c>
+      <c r="BI71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">60, 9, </v>
+      </c>
+      <c r="BJ71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">61, 8, </v>
+      </c>
+      <c r="BK71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">62, 7, </v>
+      </c>
+      <c r="BL71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">63, 7, </v>
+      </c>
+      <c r="BM71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">64, 7, </v>
+      </c>
+      <c r="BN71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">65, 8, </v>
+      </c>
+      <c r="BO71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">66, 9, </v>
+      </c>
+      <c r="BP71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">67, 11, </v>
+      </c>
+      <c r="BQ71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">68, 14, </v>
+      </c>
+      <c r="BR71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">69, 18, </v>
+      </c>
+      <c r="BS71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">70, 22, </v>
+      </c>
+      <c r="BT71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">71, 26, </v>
+      </c>
+      <c r="BU71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">72, 30, </v>
+      </c>
+      <c r="BV71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">73, 33, </v>
+      </c>
+      <c r="BW71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">74, 37, </v>
+      </c>
+      <c r="BX71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">75, 34, </v>
+      </c>
+      <c r="BY71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">76, 31, </v>
+      </c>
+      <c r="BZ71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">77, 28, </v>
+      </c>
+      <c r="CA71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">78, 26, </v>
+      </c>
+      <c r="CB71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">79, 24, </v>
+      </c>
+      <c r="CC71" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CD71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">81, 22, </v>
+      </c>
+      <c r="CE71" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CF71" t="str">
+        <f t="shared" ref="CF71:DF71" si="5">CONCATENATE(CF69,", ", CF68, ", ")</f>
+        <v xml:space="preserve">83, 21, </v>
+      </c>
+      <c r="CG71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CH71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">85, 20, </v>
+      </c>
+      <c r="CI71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CJ71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">87, 20, </v>
+      </c>
+      <c r="CK71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CL71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">89, 20, </v>
+      </c>
+      <c r="CM71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CN71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">91, 20, </v>
+      </c>
+      <c r="CO71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CP71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">93, 21, </v>
+      </c>
+      <c r="CQ71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CR71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">95, 22, </v>
+      </c>
+      <c r="CS71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="CT71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">97, 24, </v>
+      </c>
+      <c r="CU71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">98, 26, </v>
+      </c>
+      <c r="CV71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">99, 28, </v>
+      </c>
+      <c r="CW71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">100, 31, </v>
+      </c>
+      <c r="CX71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">101, 34, </v>
+      </c>
+      <c r="CY71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">102, 37, </v>
+      </c>
+      <c r="CZ71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DA71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DB71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DC71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DD71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DE71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DF71" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="DJ71" s="3"/>
+    </row>
+    <row r="72" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DJ72" s="3"/>
+    </row>
+    <row r="73" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="DJ73" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>